--- a/Cópia de Pasta3.xlsx
+++ b/Cópia de Pasta3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnforte\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D038E33-28CD-44BE-8A95-6D4AD0A6213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316BCEBB-2D78-4674-A453-027D3646E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1319EA1-AF8E-4985-AD24-6003A276BCC4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$T$384</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$T$485</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="133">
   <si>
     <t>Chave 1</t>
   </si>
@@ -287,6 +287,156 @@
   <si>
     <t>Pré / CDI / USD</t>
   </si>
+  <si>
+    <t>43921Minerva</t>
+  </si>
+  <si>
+    <t>44012Minerva</t>
+  </si>
+  <si>
+    <t>44104Minerva</t>
+  </si>
+  <si>
+    <t>43921Debênture 2020</t>
+  </si>
+  <si>
+    <t>43921Debênture 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43921Debênture </t>
+  </si>
+  <si>
+    <t>43921CCB</t>
+  </si>
+  <si>
+    <t>43921NCE</t>
+  </si>
+  <si>
+    <t>43921IFC</t>
+  </si>
+  <si>
+    <t>43921ACC</t>
+  </si>
+  <si>
+    <t>43921Bond</t>
+  </si>
+  <si>
+    <t>43921PPE</t>
+  </si>
+  <si>
+    <t>43921CCE</t>
+  </si>
+  <si>
+    <t>43921Secured Loan</t>
+  </si>
+  <si>
+    <t>43921Outros</t>
+  </si>
+  <si>
+    <t>43921Derivativos</t>
+  </si>
+  <si>
+    <t>44012Debênture 5</t>
+  </si>
+  <si>
+    <t>44012Debênture 6</t>
+  </si>
+  <si>
+    <t>44012Debênture 7</t>
+  </si>
+  <si>
+    <t>44012Debênture 8 - 1</t>
+  </si>
+  <si>
+    <t>44012Debênture 8 - 2</t>
+  </si>
+  <si>
+    <t>44012Debênture 9</t>
+  </si>
+  <si>
+    <t>44012CCB</t>
+  </si>
+  <si>
+    <t>44012NCE</t>
+  </si>
+  <si>
+    <t>44012IFC</t>
+  </si>
+  <si>
+    <t>44012ACC</t>
+  </si>
+  <si>
+    <t>44012Bond</t>
+  </si>
+  <si>
+    <t>44012PPE</t>
+  </si>
+  <si>
+    <t>44012Secured Loan</t>
+  </si>
+  <si>
+    <t>44012Outros</t>
+  </si>
+  <si>
+    <t>44012Derivativos</t>
+  </si>
+  <si>
+    <t>44104Debênture 5</t>
+  </si>
+  <si>
+    <t>44104Debênture 6</t>
+  </si>
+  <si>
+    <t>44104Debênture 7</t>
+  </si>
+  <si>
+    <t>44104Debênture 8 - 1</t>
+  </si>
+  <si>
+    <t>44104Debênture 8 - 2</t>
+  </si>
+  <si>
+    <t>44104Debênture 9</t>
+  </si>
+  <si>
+    <t>44104CCB</t>
+  </si>
+  <si>
+    <t>44104NCE</t>
+  </si>
+  <si>
+    <t>44104IFC</t>
+  </si>
+  <si>
+    <t>44104ACC</t>
+  </si>
+  <si>
+    <t>44104Bond</t>
+  </si>
+  <si>
+    <t>44104PPE</t>
+  </si>
+  <si>
+    <t>44104Secured Loan</t>
+  </si>
+  <si>
+    <t>44104Outros</t>
+  </si>
+  <si>
+    <t>44104Derivativos</t>
+  </si>
+  <si>
+    <t>Debênture 8-1</t>
+  </si>
+  <si>
+    <t>Debênture 8-2</t>
+  </si>
+  <si>
+    <t>339.63</t>
+  </si>
+  <si>
+    <t>73.22</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +481,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +511,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,6 +533,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,11 +871,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D650C7-7F42-4F3A-9984-78E14D44833F}">
-  <dimension ref="A1:X384"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X485"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A384" sqref="A384"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>C2&amp;F2</f>
         <v>43830Debênture 2020</v>
@@ -855,7 +1040,7 @@
       <c r="U2" s="8"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A97" si="8">C3&amp;F3</f>
         <v>43830Debênture 2024</v>
@@ -929,7 +1114,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">43830Debênture </v>
@@ -1003,7 +1188,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="8"/>
         <v>43830CCB</v>
@@ -1078,7 +1263,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="8"/>
         <v>43830CCB</v>
@@ -1153,7 +1338,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="8"/>
         <v>43830NCE</v>
@@ -1228,7 +1413,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="8"/>
         <v>43830NCE</v>
@@ -1302,7 +1487,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="8"/>
         <v>43830IFC</v>
@@ -1376,7 +1561,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="8"/>
         <v>43830IFC</v>
@@ -1450,7 +1635,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="8"/>
         <v>43830IFC</v>
@@ -1525,7 +1710,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="8"/>
         <v>43830ACC</v>
@@ -1599,7 +1784,7 @@
       </c>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="8"/>
         <v>43830Bond</v>
@@ -1672,7 +1857,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="8"/>
         <v>43830Bond</v>
@@ -1745,7 +1930,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="8"/>
         <v>43830Bond</v>
@@ -1818,7 +2003,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="8"/>
         <v>43830PPE</v>
@@ -1890,7 +2075,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="8"/>
         <v>43830PPE</v>
@@ -1962,7 +2147,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="8"/>
         <v>43830CCE</v>
@@ -2035,7 +2220,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2108,7 +2293,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2181,7 +2366,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2254,7 +2439,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2327,7 +2512,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2400,7 +2585,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2473,7 +2658,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2546,7 +2731,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2619,7 +2804,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2692,7 +2877,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="8"/>
         <v>43830Secured Loan</v>
@@ -2765,7 +2950,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="8"/>
         <v>43830Outros</v>
@@ -2838,7 +3023,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -2911,7 +3096,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -2984,7 +3169,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -3057,7 +3242,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -3130,7 +3315,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -3203,7 +3388,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -3276,7 +3461,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -3349,7 +3534,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="8"/>
         <v>43830Derivativos</v>
@@ -3422,7 +3607,7 @@
         <v>6.4947068267823538E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3440,80 +3625,80 @@
       <c r="U38" s="5"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+    <row r="39" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="str">
         <f t="shared" si="8"/>
         <v>43921Debênture 2020</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="22" t="str">
         <f t="shared" si="9"/>
         <v>43921Minerva</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="23">
         <v>43921</v>
       </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="24">
         <v>357432</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="23">
         <v>44106</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="25">
         <v>1.0549999999999999</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="25">
         <f>K39*2.15%</f>
         <v>2.2682499999999998E-2</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="26">
         <f t="shared" ref="M39:M66" si="12">(I39-C39)/365</f>
         <v>0.50684931506849318</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="22">
         <f t="shared" ref="N39:N66" si="13">YEAR(I39)</f>
         <v>2020</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="26">
         <f t="shared" ref="O39:O66" si="14">M39*H39</f>
         <v>181164.16438356164</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="27">
         <f t="shared" ref="P39:P66" si="15">L39*H39</f>
         <v>8107.4513399999996</v>
       </c>
-      <c r="Q39" s="5">
-        <f t="shared" ref="Q39:Q66" si="16">H39*L39</f>
+      <c r="Q39" s="24">
+        <f>H39*L39</f>
         <v>8107.4513399999996</v>
       </c>
-      <c r="R39" s="5">
-        <f t="shared" ref="R39:R66" si="17">Q39/4</f>
+      <c r="R39" s="24">
+        <f>Q39/4</f>
         <v>2026.8628349999999</v>
       </c>
-      <c r="S39" s="8">
-        <f t="shared" ref="S39:S68" si="18">SUMIFS($O:$O,$C:$C,$C39,$D:$D,D39)/SUMIFS($H:$H,$C:$C,$C39,$D:$D,D39)</f>
+      <c r="S39" s="26">
+        <f>SUMIFS($O:$O,$C:$C,$C39,$D:$D,D39)/SUMIFS($H:$H,$C:$C,$C39,$D:$D,D39)</f>
         <v>5.5336276947430845</v>
       </c>
-      <c r="T39" s="7">
-        <f t="shared" ref="T39:T68" si="19">SUMIFS($P:$P,$C:$C,$C39,$D:$D,D39)/SUMIFS($H:$H,$C:$C,$C39,$D:$D,D39)</f>
+      <c r="T39" s="28">
+        <f t="shared" ref="T39:T68" si="16">SUMIFS($P:$P,$C:$C,$C39,$D:$D,D39)/SUMIFS($H:$H,$C:$C,$C39,$D:$D,D39)</f>
         <v>6.7264980703746577E-2</v>
       </c>
-      <c r="U39" s="5"/>
-      <c r="V39" s="8"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="26"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
@@ -3556,7 +3741,7 @@
         <v>3.9499999999999993E-2</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="12"/>
+        <f>(I40-C40)/365</f>
         <v>2.1232876712328768</v>
       </c>
       <c r="N40">
@@ -3564,27 +3749,27 @@
         <v>2022</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="14"/>
+        <f>M40*H40</f>
         <v>859568.42465753423</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="15"/>
+        <f>L40*H40</f>
         <v>15990.745499999997</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="16"/>
+        <f>H40*L40</f>
         <v>15990.745499999997</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="17"/>
+        <f>Q40/4</f>
         <v>3997.6863749999993</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="18"/>
+        <f>SUMIFS($O:$O,$C:$C,$C40,$D:$D,D40)/SUMIFS($H:$H,$C:$C,$C40,$D:$D,D40)</f>
         <v>5.5336276947430845</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" si="19"/>
+        <f>SUMIFS($P:$P,$C:$C,$C40,$D:$D,D40)/SUMIFS($H:$H,$C:$C,$C40,$D:$D,D40)</f>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U40" s="5"/>
@@ -3646,61 +3831,61 @@
         <v>32699.615000000002</v>
       </c>
       <c r="Q41" s="5">
+        <f t="shared" ref="Q41:Q66" si="17">H41*L41</f>
+        <v>32699.615000000002</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" ref="R41:R66" si="18">Q41/4</f>
+        <v>8174.9037500000004</v>
+      </c>
+      <c r="S41" s="8">
+        <f t="shared" ref="S41:S68" si="19">SUMIFS($O:$O,$C:$C,$C41,$D:$D,D41)/SUMIFS($H:$H,$C:$C,$C41,$D:$D,D41)</f>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T41" s="7">
         <f t="shared" si="16"/>
-        <v>32699.615000000002</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="17"/>
-        <v>8174.9037500000004</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T41" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="8"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+    <row r="42" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="str">
         <f t="shared" si="8"/>
         <v>43921CCB</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="30" t="str">
         <f t="shared" si="9"/>
         <v>43921Minerva</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="31">
         <v>43921</v>
       </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="5">
         <v>25251</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="31">
         <v>43983</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="32">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="32">
         <f>K42</f>
         <v>8.3500000000000005E-2</v>
       </c>
@@ -3708,7 +3893,7 @@
         <f t="shared" si="12"/>
         <v>0.16986301369863013</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="30">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
@@ -3716,66 +3901,66 @@
         <f t="shared" si="14"/>
         <v>4289.2109589041092</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="33">
         <f t="shared" si="15"/>
         <v>2108.4585000000002</v>
       </c>
       <c r="Q42" s="5">
+        <f t="shared" si="17"/>
+        <v>2108.4585000000002</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="18"/>
+        <v>527.11462500000005</v>
+      </c>
+      <c r="S42" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T42" s="7">
         <f t="shared" si="16"/>
-        <v>2108.4585000000002</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="17"/>
-        <v>527.11462500000005</v>
-      </c>
-      <c r="S42" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T42" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U42" s="5"/>
       <c r="V42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+    <row r="43" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="str">
         <f t="shared" si="8"/>
         <v>43921CCB</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="30" t="str">
         <f t="shared" si="9"/>
         <v>43921Minerva</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="31">
         <v>43921</v>
       </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H43" s="5">
         <v>50000</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="31">
         <v>44348</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="32">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="32">
         <f>K43</f>
         <v>8.3500000000000005E-2</v>
       </c>
@@ -3783,7 +3968,7 @@
         <f t="shared" si="12"/>
         <v>1.1698630136986301</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="30">
         <f t="shared" si="13"/>
         <v>2021</v>
       </c>
@@ -3791,177 +3976,177 @@
         <f t="shared" si="14"/>
         <v>58493.150684931505</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="33">
         <f t="shared" si="15"/>
         <v>4175</v>
       </c>
       <c r="Q43" s="5">
+        <f t="shared" si="17"/>
+        <v>4175</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="18"/>
+        <v>1043.75</v>
+      </c>
+      <c r="S43" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T43" s="7">
         <f t="shared" si="16"/>
-        <v>4175</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="17"/>
-        <v>1043.75</v>
-      </c>
-      <c r="S43" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T43" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="8"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+    <row r="44" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="str">
         <f t="shared" si="8"/>
         <v>43921NCE</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="15" t="str">
         <f t="shared" si="9"/>
         <v>43921Minerva</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="16">
         <v>43921</v>
       </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="17">
         <f>578864-H45</f>
         <v>476197</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="16">
         <v>43983</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="21">
         <v>0.03</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="18">
         <v>0.09</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="19">
         <f t="shared" si="12"/>
         <v>0.16986301369863013</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="15">
         <f t="shared" si="13"/>
         <v>2020</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="19">
         <f t="shared" si="14"/>
         <v>80888.257534246572</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="20">
         <f t="shared" si="15"/>
         <v>42857.729999999996</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="17">
+        <f t="shared" si="17"/>
+        <v>42857.729999999996</v>
+      </c>
+      <c r="R44" s="17">
+        <f t="shared" si="18"/>
+        <v>10714.432499999999</v>
+      </c>
+      <c r="S44" s="19">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T44" s="18">
         <f t="shared" si="16"/>
-        <v>42857.729999999996</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" si="17"/>
-        <v>10714.432499999999</v>
-      </c>
-      <c r="S44" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T44" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="8"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+      <c r="U44" s="17"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
         <f t="shared" si="8"/>
         <v>43921NCE</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="15" t="str">
         <f t="shared" si="9"/>
         <v>43921Minerva</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="16">
         <v>43921</v>
       </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="17">
         <v>102667</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="16">
         <v>44348</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="21">
         <v>0.03</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="18">
         <v>0.09</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="19">
         <f t="shared" si="12"/>
         <v>1.1698630136986301</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="15">
         <f t="shared" si="13"/>
         <v>2021</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="19">
         <f t="shared" si="14"/>
         <v>120106.32602739726</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="20">
         <f t="shared" si="15"/>
         <v>9240.0299999999988</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="17">
+        <f t="shared" si="17"/>
+        <v>9240.0299999999988</v>
+      </c>
+      <c r="R45" s="17">
+        <f t="shared" si="18"/>
+        <v>2310.0074999999997</v>
+      </c>
+      <c r="S45" s="19">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T45" s="18">
         <f t="shared" si="16"/>
-        <v>9240.0299999999988</v>
-      </c>
-      <c r="R45" s="5">
-        <f t="shared" si="17"/>
-        <v>2310.0074999999997</v>
-      </c>
-      <c r="S45" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T45" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
-      <c r="U45" s="5"/>
-      <c r="V45" s="8"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="19"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
@@ -4019,19 +4204,19 @@
         <v>1205.0500000000002</v>
       </c>
       <c r="Q46" s="5">
+        <f t="shared" si="17"/>
+        <v>1205.0500000000002</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="18"/>
+        <v>301.26250000000005</v>
+      </c>
+      <c r="S46" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T46" s="7">
         <f t="shared" si="16"/>
-        <v>1205.0500000000002</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="17"/>
-        <v>301.26250000000005</v>
-      </c>
-      <c r="S46" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T46" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U46" s="5"/>
@@ -4093,19 +4278,19 @@
         <v>1205.0500000000002</v>
       </c>
       <c r="Q47" s="5">
+        <f t="shared" si="17"/>
+        <v>1205.0500000000002</v>
+      </c>
+      <c r="R47" s="5">
+        <f t="shared" si="18"/>
+        <v>301.26250000000005</v>
+      </c>
+      <c r="S47" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T47" s="7">
         <f t="shared" si="16"/>
-        <v>1205.0500000000002</v>
-      </c>
-      <c r="R47" s="5">
-        <f t="shared" si="17"/>
-        <v>301.26250000000005</v>
-      </c>
-      <c r="S47" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T47" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U47" s="5"/>
@@ -4167,19 +4352,19 @@
         <v>1875.4400000000003</v>
       </c>
       <c r="Q48" s="5">
+        <f t="shared" si="17"/>
+        <v>1875.4400000000003</v>
+      </c>
+      <c r="R48" s="5">
+        <f t="shared" si="18"/>
+        <v>468.86000000000007</v>
+      </c>
+      <c r="S48" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T48" s="7">
         <f t="shared" si="16"/>
-        <v>1875.4400000000003</v>
-      </c>
-      <c r="R48" s="5">
-        <f t="shared" si="17"/>
-        <v>468.86000000000007</v>
-      </c>
-      <c r="S48" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T48" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U48" s="5"/>
@@ -4242,19 +4427,19 @@
         <v>55108.57</v>
       </c>
       <c r="Q49" s="5">
+        <f t="shared" si="17"/>
+        <v>55108.57</v>
+      </c>
+      <c r="R49" s="5">
+        <f t="shared" si="18"/>
+        <v>13777.1425</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T49" s="7">
         <f t="shared" si="16"/>
-        <v>55108.57</v>
-      </c>
-      <c r="R49" s="5">
-        <f t="shared" si="17"/>
-        <v>13777.1425</v>
-      </c>
-      <c r="S49" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T49" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U49" s="5"/>
@@ -4318,19 +4503,19 @@
         <v>4446.2924999999696</v>
       </c>
       <c r="Q50" s="5">
+        <f t="shared" si="17"/>
+        <v>4446.2924999999696</v>
+      </c>
+      <c r="R50" s="5">
+        <f t="shared" si="18"/>
+        <v>1111.5731249999924</v>
+      </c>
+      <c r="S50" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T50" s="7">
         <f t="shared" si="16"/>
-        <v>4446.2924999999696</v>
-      </c>
-      <c r="R50" s="5">
-        <f t="shared" si="17"/>
-        <v>1111.5731249999924</v>
-      </c>
-      <c r="S50" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T50" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U50" s="5"/>
@@ -4393,19 +4578,19 @@
         <v>398389.37775000004</v>
       </c>
       <c r="Q51" s="5">
+        <f t="shared" si="17"/>
+        <v>398389.37775000004</v>
+      </c>
+      <c r="R51" s="5">
+        <f t="shared" si="18"/>
+        <v>99597.344437500011</v>
+      </c>
+      <c r="S51" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T51" s="7">
         <f t="shared" si="16"/>
-        <v>398389.37775000004</v>
-      </c>
-      <c r="R51" s="5">
-        <f t="shared" si="17"/>
-        <v>99597.344437500011</v>
-      </c>
-      <c r="S51" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T51" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U51" s="5"/>
@@ -4468,19 +4653,19 @@
         <v>134176.84256249998</v>
       </c>
       <c r="Q52" s="5">
+        <f t="shared" si="17"/>
+        <v>134176.84256249998</v>
+      </c>
+      <c r="R52" s="5">
+        <f t="shared" si="18"/>
+        <v>33544.210640624995</v>
+      </c>
+      <c r="S52" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T52" s="7">
         <f t="shared" si="16"/>
-        <v>134176.84256249998</v>
-      </c>
-      <c r="R52" s="5">
-        <f t="shared" si="17"/>
-        <v>33544.210640624995</v>
-      </c>
-      <c r="S52" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T52" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U52" s="5"/>
@@ -4542,19 +4727,19 @@
         <v>23398.226400000003</v>
       </c>
       <c r="Q53" s="5">
+        <f t="shared" si="17"/>
+        <v>23398.226400000003</v>
+      </c>
+      <c r="R53" s="5">
+        <f t="shared" si="18"/>
+        <v>5849.5566000000008</v>
+      </c>
+      <c r="S53" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T53" s="7">
         <f t="shared" si="16"/>
-        <v>23398.226400000003</v>
-      </c>
-      <c r="R53" s="5">
-        <f t="shared" si="17"/>
-        <v>5849.5566000000008</v>
-      </c>
-      <c r="S53" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T53" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U53" s="5"/>
@@ -4617,19 +4802,19 @@
         <v>13339.093599999998</v>
       </c>
       <c r="Q54" s="5">
+        <f t="shared" si="17"/>
+        <v>13339.093599999998</v>
+      </c>
+      <c r="R54" s="5">
+        <f t="shared" si="18"/>
+        <v>3334.7733999999996</v>
+      </c>
+      <c r="S54" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T54" s="7">
         <f t="shared" si="16"/>
-        <v>13339.093599999998</v>
-      </c>
-      <c r="R54" s="5">
-        <f t="shared" si="17"/>
-        <v>3334.7733999999996</v>
-      </c>
-      <c r="S54" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T54" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U54" s="5"/>
@@ -4692,19 +4877,19 @@
         <v>20968.61</v>
       </c>
       <c r="Q55" s="5">
+        <f t="shared" si="17"/>
+        <v>20968.61</v>
+      </c>
+      <c r="R55" s="5">
+        <f t="shared" si="18"/>
+        <v>5242.1525000000001</v>
+      </c>
+      <c r="S55" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T55" s="7">
         <f t="shared" si="16"/>
-        <v>20968.61</v>
-      </c>
-      <c r="R55" s="5">
-        <f t="shared" si="17"/>
-        <v>5242.1525000000001</v>
-      </c>
-      <c r="S55" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T55" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U55" s="5"/>
@@ -4767,19 +4952,19 @@
         <v>79.909050000000008</v>
       </c>
       <c r="Q56" s="5">
+        <f t="shared" si="17"/>
+        <v>79.909050000000008</v>
+      </c>
+      <c r="R56" s="5">
+        <f t="shared" si="18"/>
+        <v>19.977262500000002</v>
+      </c>
+      <c r="S56" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T56" s="7">
         <f t="shared" si="16"/>
-        <v>79.909050000000008</v>
-      </c>
-      <c r="R56" s="5">
-        <f t="shared" si="17"/>
-        <v>19.977262500000002</v>
-      </c>
-      <c r="S56" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T56" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U56" s="5"/>
@@ -4842,19 +5027,19 @@
         <v>83.263050000000007</v>
       </c>
       <c r="Q57" s="5">
+        <f t="shared" si="17"/>
+        <v>83.263050000000007</v>
+      </c>
+      <c r="R57" s="5">
+        <f t="shared" si="18"/>
+        <v>20.815762500000002</v>
+      </c>
+      <c r="S57" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T57" s="7">
         <f t="shared" si="16"/>
-        <v>83.263050000000007</v>
-      </c>
-      <c r="R57" s="5">
-        <f t="shared" si="17"/>
-        <v>20.815762500000002</v>
-      </c>
-      <c r="S57" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T57" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U57" s="5"/>
@@ -4917,19 +5102,19 @@
         <v>89.635649999999998</v>
       </c>
       <c r="Q58" s="5">
+        <f t="shared" si="17"/>
+        <v>89.635649999999998</v>
+      </c>
+      <c r="R58" s="5">
+        <f t="shared" si="18"/>
+        <v>22.4089125</v>
+      </c>
+      <c r="S58" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T58" s="7">
         <f t="shared" si="16"/>
-        <v>89.635649999999998</v>
-      </c>
-      <c r="R58" s="5">
-        <f t="shared" si="17"/>
-        <v>22.4089125</v>
-      </c>
-      <c r="S58" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T58" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U58" s="5"/>
@@ -4992,19 +5177,19 @@
         <v>96.595200000000006</v>
       </c>
       <c r="Q59" s="5">
+        <f t="shared" si="17"/>
+        <v>96.595200000000006</v>
+      </c>
+      <c r="R59" s="5">
+        <f t="shared" si="18"/>
+        <v>24.148800000000001</v>
+      </c>
+      <c r="S59" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T59" s="7">
         <f t="shared" si="16"/>
-        <v>96.595200000000006</v>
-      </c>
-      <c r="R59" s="5">
-        <f t="shared" si="17"/>
-        <v>24.148800000000001</v>
-      </c>
-      <c r="S59" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T59" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U59" s="5"/>
@@ -5067,19 +5252,19 @@
         <v>95.085900000000009</v>
       </c>
       <c r="Q60" s="5">
+        <f t="shared" si="17"/>
+        <v>95.085900000000009</v>
+      </c>
+      <c r="R60" s="5">
+        <f t="shared" si="18"/>
+        <v>23.771475000000002</v>
+      </c>
+      <c r="S60" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T60" s="7">
         <f t="shared" si="16"/>
-        <v>95.085900000000009</v>
-      </c>
-      <c r="R60" s="5">
-        <f t="shared" si="17"/>
-        <v>23.771475000000002</v>
-      </c>
-      <c r="S60" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T60" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U60" s="5"/>
@@ -5142,19 +5327,19 @@
         <v>90.977250000000012</v>
       </c>
       <c r="Q61" s="5">
+        <f t="shared" si="17"/>
+        <v>90.977250000000012</v>
+      </c>
+      <c r="R61" s="5">
+        <f t="shared" si="18"/>
+        <v>22.744312500000003</v>
+      </c>
+      <c r="S61" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T61" s="7">
         <f t="shared" si="16"/>
-        <v>90.977250000000012</v>
-      </c>
-      <c r="R61" s="5">
-        <f t="shared" si="17"/>
-        <v>22.744312500000003</v>
-      </c>
-      <c r="S61" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T61" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U61" s="5"/>
@@ -5217,19 +5402,19 @@
         <v>132.90225000000001</v>
       </c>
       <c r="Q62" s="5">
+        <f t="shared" si="17"/>
+        <v>132.90225000000001</v>
+      </c>
+      <c r="R62" s="5">
+        <f t="shared" si="18"/>
+        <v>33.225562500000002</v>
+      </c>
+      <c r="S62" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T62" s="7">
         <f t="shared" si="16"/>
-        <v>132.90225000000001</v>
-      </c>
-      <c r="R62" s="5">
-        <f t="shared" si="17"/>
-        <v>33.225562500000002</v>
-      </c>
-      <c r="S62" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T62" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U62" s="5"/>
@@ -5292,19 +5477,19 @@
         <v>146.82135</v>
       </c>
       <c r="Q63" s="5">
+        <f t="shared" si="17"/>
+        <v>146.82135</v>
+      </c>
+      <c r="R63" s="5">
+        <f t="shared" si="18"/>
+        <v>36.705337499999999</v>
+      </c>
+      <c r="S63" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T63" s="7">
         <f t="shared" si="16"/>
-        <v>146.82135</v>
-      </c>
-      <c r="R63" s="5">
-        <f t="shared" si="17"/>
-        <v>36.705337499999999</v>
-      </c>
-      <c r="S63" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T63" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U63" s="5"/>
@@ -5367,19 +5552,19 @@
         <v>148.66605000000001</v>
       </c>
       <c r="Q64" s="5">
+        <f t="shared" si="17"/>
+        <v>148.66605000000001</v>
+      </c>
+      <c r="R64" s="5">
+        <f t="shared" si="18"/>
+        <v>37.166512500000003</v>
+      </c>
+      <c r="S64" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T64" s="7">
         <f t="shared" si="16"/>
-        <v>148.66605000000001</v>
-      </c>
-      <c r="R64" s="5">
-        <f t="shared" si="17"/>
-        <v>37.166512500000003</v>
-      </c>
-      <c r="S64" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T64" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U64" s="5"/>
@@ -5442,19 +5627,19 @@
         <v>47.804249999999932</v>
       </c>
       <c r="Q65" s="5">
+        <f t="shared" si="17"/>
+        <v>47.804249999999932</v>
+      </c>
+      <c r="R65" s="5">
+        <f t="shared" si="18"/>
+        <v>11.951062499999983</v>
+      </c>
+      <c r="S65" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T65" s="7">
         <f t="shared" si="16"/>
-        <v>47.804249999999932</v>
-      </c>
-      <c r="R65" s="5">
-        <f t="shared" si="17"/>
-        <v>11.951062499999983</v>
-      </c>
-      <c r="S65" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T65" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U65" s="5"/>
@@ -5517,19 +5702,19 @@
         <v>18008.900000000001</v>
       </c>
       <c r="Q66" s="5">
+        <f t="shared" si="17"/>
+        <v>18008.900000000001</v>
+      </c>
+      <c r="R66" s="5">
+        <f t="shared" si="18"/>
+        <v>4502.2250000000004</v>
+      </c>
+      <c r="S66" s="8">
+        <f t="shared" si="19"/>
+        <v>5.5336276947430845</v>
+      </c>
+      <c r="T66" s="7">
         <f t="shared" si="16"/>
-        <v>18008.900000000001</v>
-      </c>
-      <c r="R66" s="5">
-        <f t="shared" si="17"/>
-        <v>4502.2250000000004</v>
-      </c>
-      <c r="S66" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5336276947430845</v>
-      </c>
-      <c r="T66" s="7">
-        <f t="shared" si="19"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U66" s="5"/>
@@ -5566,11 +5751,11 @@
       <c r="O67" s="8"/>
       <c r="P67" s="9"/>
       <c r="S67" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.5336276947430845</v>
       </c>
       <c r="T67" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U67" s="5"/>
@@ -5607,17 +5792,17 @@
       <c r="O68" s="8"/>
       <c r="P68" s="9"/>
       <c r="S68" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.5336276947430845</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6.7264980703746577E-2</v>
       </c>
       <c r="U68" s="5"/>
       <c r="V68" s="8"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="H69" s="5"/>
       <c r="L69" s="7"/>
       <c r="O69" s="8"/>
@@ -5627,7 +5812,7 @@
       <c r="U69" s="5"/>
       <c r="V69" s="8"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="8"/>
         <v>43738Debênture 2020</v>
@@ -5704,7 +5889,7 @@
       <c r="W70" s="5"/>
       <c r="X70" s="9"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="8"/>
         <v>43738Debênture 2024</v>
@@ -5780,7 +5965,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="5"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="8"/>
         <v>43738CCB</v>
@@ -5855,7 +6040,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="8"/>
         <v>43738CCB</v>
@@ -5930,7 +6115,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="8"/>
         <v>43738NCE</v>
@@ -6006,7 +6191,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="8"/>
         <v>43738NCE</v>
@@ -6082,7 +6267,7 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="8"/>
         <v>43738IFC</v>
@@ -6158,7 +6343,7 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="8"/>
         <v>43738IFC</v>
@@ -6235,7 +6420,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="8"/>
         <v>43738IFC</v>
@@ -6311,7 +6496,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="8"/>
         <v>43738IFC</v>
@@ -6388,7 +6573,7 @@
       <c r="W79" s="5"/>
       <c r="X79" s="9"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="8"/>
         <v>43738IFC</v>
@@ -6465,7 +6650,7 @@
       <c r="W80" s="5"/>
       <c r="X80" s="9"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="8"/>
         <v>43738ACC</v>
@@ -6540,7 +6725,7 @@
       <c r="V81" s="9"/>
       <c r="W81" s="8"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="8"/>
         <v>43738ACC</v>
@@ -6612,7 +6797,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="8"/>
         <v>43738Bond</v>
@@ -6684,7 +6869,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="8"/>
         <v>43738Bond</v>
@@ -6756,7 +6941,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="8"/>
         <v>43738Bond</v>
@@ -6828,7 +7013,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="8"/>
         <v>43738PPE</v>
@@ -6900,7 +7085,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="8"/>
         <v>43738CCE</v>
@@ -6972,7 +7157,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7045,7 +7230,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7117,7 +7302,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7190,7 +7375,7 @@
       </c>
       <c r="V90" s="9"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7262,7 +7447,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7334,7 +7519,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7406,7 +7591,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7478,7 +7663,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7550,7 +7735,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7622,7 +7807,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="8"/>
         <v>43738Secured Loan</v>
@@ -7694,7 +7879,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" ref="A98:A161" si="31">C98&amp;F98</f>
         <v>43738Outros</v>
@@ -7766,7 +7951,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="31"/>
         <v>43738Derivativos</v>
@@ -7838,7 +8023,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="31"/>
         <v>43738Derivativos</v>
@@ -7910,7 +8095,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="31"/>
         <v>43738Derivativos</v>
@@ -7982,7 +8167,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="31"/>
         <v>43738Derivativos</v>
@@ -8055,7 +8240,7 @@
         <v>6.082163803578116E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="31"/>
         <v/>
@@ -8069,7 +8254,7 @@
       <c r="S103" s="11"/>
       <c r="T103" s="11"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="31"/>
         <v>43646Debênture 2020</v>
@@ -8142,7 +8327,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="31"/>
         <v>43646Debênture 2024</v>
@@ -8215,7 +8400,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="31"/>
         <v>43646CCB</v>
@@ -8287,7 +8472,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="31"/>
         <v>43646CCB</v>
@@ -8359,7 +8544,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="31"/>
         <v>43646NCE</v>
@@ -8432,7 +8617,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="31"/>
         <v>43646NCE</v>
@@ -8505,7 +8690,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="31"/>
         <v>43646IFC</v>
@@ -8579,7 +8764,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="31"/>
         <v>43646IFC</v>
@@ -8653,7 +8838,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="31"/>
         <v>43646IFC</v>
@@ -8726,7 +8911,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="31"/>
         <v>43646IFC</v>
@@ -8799,7 +8984,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="31"/>
         <v>43646IFC</v>
@@ -8872,7 +9057,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="31"/>
         <v>43646ACC</v>
@@ -8944,7 +9129,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="31"/>
         <v>43646Bond</v>
@@ -9016,7 +9201,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="31"/>
         <v>43646Bond</v>
@@ -9088,7 +9273,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="31"/>
         <v>43646PPE</v>
@@ -9160,7 +9345,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="31"/>
         <v>43646CCE</v>
@@ -9232,7 +9417,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9304,7 +9489,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9376,7 +9561,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9448,7 +9633,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9520,7 +9705,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9592,7 +9777,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9664,7 +9849,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9736,7 +9921,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9808,7 +9993,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9880,7 +10065,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="31"/>
         <v>43646Secured Loan</v>
@@ -9952,7 +10137,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="31"/>
         <v>43646Outros</v>
@@ -10024,7 +10209,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="31"/>
         <v>43646Derivativos</v>
@@ -10096,7 +10281,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="31"/>
         <v>43646Derivativos</v>
@@ -10168,7 +10353,7 @@
         <v>6.1244627650741339E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="31"/>
         <v/>
@@ -10182,80 +10367,80 @@
       <c r="S133" s="11"/>
       <c r="T133" s="11"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
+    <row r="134" spans="1:20" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="str">
         <f t="shared" si="31"/>
         <v>43555Debênture 2020</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B134" s="15" t="str">
         <f t="shared" si="32"/>
         <v>43555Minerva</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="16">
         <v>43555</v>
       </c>
-      <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D134" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="17">
         <v>358245</v>
       </c>
-      <c r="I134" s="4">
+      <c r="I134" s="16">
         <v>44106</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K134" s="12">
+      <c r="K134" s="21">
         <v>1.0549999999999999</v>
       </c>
-      <c r="L134" s="7">
+      <c r="L134" s="18">
         <f>(((1+4.4%)^(1/252)-1)*K134+1)^(252)-1</f>
         <v>4.6475182575541618E-2</v>
       </c>
-      <c r="M134" s="8">
+      <c r="M134" s="19">
         <f>(I134-C134)/365</f>
         <v>1.5095890410958903</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="15">
         <f>YEAR(I134)</f>
         <v>2020</v>
       </c>
-      <c r="O134" s="8">
+      <c r="O134" s="19">
         <f>M134*H134</f>
         <v>540802.72602739721</v>
       </c>
-      <c r="P134" s="9">
+      <c r="P134" s="20">
         <f>L134*H134</f>
         <v>16649.501781774907</v>
       </c>
-      <c r="Q134" s="5">
+      <c r="Q134" s="17">
         <f>H134*L134</f>
         <v>16649.501781774907</v>
       </c>
-      <c r="R134" s="5">
+      <c r="R134" s="17">
         <f>Q134/4</f>
         <v>4162.3754454437267</v>
       </c>
-      <c r="S134" s="8">
+      <c r="S134" s="19">
         <f t="shared" ref="S134:S151" si="42">SUMIFS($O:$O,$C:$C,$C134,$D:$D,D134)/SUMIFS($H:$H,$C:$C,$C134,$D:$D,D134)</f>
         <v>5.7253725210738216</v>
       </c>
-      <c r="T134" s="7">
+      <c r="T134" s="18">
         <f t="shared" ref="T134:T151" si="43">SUMIFS($P:$P,$C:$C,$C134,$D:$D,D134)/SUMIFS($H:$H,$C:$C,$C134,$D:$D,D134)</f>
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="31"/>
         <v>43555CCB</v>
@@ -10327,7 +10512,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="31"/>
         <v>43555NCE</v>
@@ -10400,7 +10585,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="31"/>
         <v>43555NCE</v>
@@ -10473,7 +10658,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="31"/>
         <v>43555IFC</v>
@@ -10546,7 +10731,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="31"/>
         <v>43555IFC</v>
@@ -10620,7 +10805,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="31"/>
         <v>43555IFC</v>
@@ -10693,7 +10878,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="31"/>
         <v>43555IFC</v>
@@ -10766,7 +10951,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="31"/>
         <v>43555IFC</v>
@@ -10839,7 +11024,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="31"/>
         <v>43555ACC</v>
@@ -10911,7 +11096,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="31"/>
         <v>43555Bond</v>
@@ -10983,7 +11168,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="31"/>
         <v>43555Bond</v>
@@ -11055,7 +11240,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="31"/>
         <v>43555Bond</v>
@@ -11127,7 +11312,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="31"/>
         <v>43555PPE</v>
@@ -11199,7 +11384,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="31"/>
         <v>43555CCE</v>
@@ -11271,7 +11456,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="31"/>
         <v>43555Outros</v>
@@ -11343,7 +11528,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="31"/>
         <v>43555Derivativos</v>
@@ -11415,7 +11600,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="31"/>
         <v>43555Derivativos</v>
@@ -11487,7 +11672,7 @@
         <v>6.1944681892534548E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="31"/>
         <v/>
@@ -11501,7 +11686,7 @@
       <c r="S152" s="11"/>
       <c r="T152" s="11"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="31"/>
         <v>43465Debênture 2020</v>
@@ -11574,7 +11759,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="31"/>
         <v>43465Arrendamento</v>
@@ -11646,7 +11831,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="31"/>
         <v>43465CCB</v>
@@ -11718,7 +11903,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="31"/>
         <v>43465NCE</v>
@@ -11791,7 +11976,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="31"/>
         <v>43465NCE</v>
@@ -11864,7 +12049,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="31"/>
         <v>43465IFC</v>
@@ -11937,7 +12122,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="31"/>
         <v>43465IFC</v>
@@ -12011,7 +12196,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="31"/>
         <v>43465IFC</v>
@@ -12084,7 +12269,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="31"/>
         <v>43465IFC</v>
@@ -12157,7 +12342,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" ref="A162:A182" si="60">C162&amp;F162</f>
         <v>43465IFC</v>
@@ -12230,7 +12415,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="60"/>
         <v>43465ACC</v>
@@ -12302,7 +12487,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="60"/>
         <v>43465NCE</v>
@@ -12374,7 +12559,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="60"/>
         <v>43465Bond</v>
@@ -12446,7 +12631,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="60"/>
         <v>43465Bond</v>
@@ -12518,7 +12703,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="60"/>
         <v>43465Bond</v>
@@ -12590,7 +12775,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="60"/>
         <v>43465PPE</v>
@@ -12662,7 +12847,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="60"/>
         <v>43465CCE</v>
@@ -12734,7 +12919,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="60"/>
         <v>43465Outros</v>
@@ -12806,7 +12991,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="60"/>
         <v>43465Derivativos</v>
@@ -12878,7 +13063,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="60"/>
         <v>43465Derivativos</v>
@@ -12950,7 +13135,7 @@
         <v>6.1741188495247859E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="60"/>
         <v/>
@@ -12963,7 +13148,7 @@
       <c r="L173" s="7"/>
       <c r="T173" s="7"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="60"/>
         <v>43920KG</v>
@@ -13033,7 +13218,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="60"/>
         <v>43920CRA</v>
@@ -13103,7 +13288,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="60"/>
         <v>43920Fomento</v>
@@ -13173,7 +13358,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="60"/>
         <v>43920Debentures</v>
@@ -13243,7 +13428,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="60"/>
         <v>43920Incentivos Fiscais</v>
@@ -13313,7 +13498,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="60"/>
         <v>43920Bond</v>
@@ -13383,7 +13568,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="60"/>
         <v>43920PPE</v>
@@ -13453,7 +13638,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="60"/>
         <v>43920KG</v>
@@ -13523,7 +13708,7 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="60"/>
         <v>43920Derivativo</v>
@@ -13583,7 +13768,8 @@
         <v>4.6712500564027398E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" ref="A184:A194" si="70">C184&amp;F184</f>
         <v>43830KG</v>
@@ -13653,7 +13839,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="70"/>
         <v>43830CRA</v>
@@ -13723,7 +13909,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="70"/>
         <v>43830Fomento</v>
@@ -13793,7 +13979,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="70"/>
         <v>43830Debentures</v>
@@ -13863,7 +14049,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="70"/>
         <v>43830NCE</v>
@@ -13933,7 +14119,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="70"/>
         <v>43830PESA</v>
@@ -14003,7 +14189,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="70"/>
         <v>43830Incentivos Fiscais</v>
@@ -14073,7 +14259,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="70"/>
         <v>43830Bond</v>
@@ -14143,7 +14329,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="70"/>
         <v>43830PPE</v>
@@ -14213,7 +14399,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="70"/>
         <v>43830KG</v>
@@ -14283,7 +14469,7 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="70"/>
         <v>43830Derivativo</v>
@@ -14340,7 +14526,8 @@
         <v>5.4111616335072103E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" ref="A196:A207" si="80">C196&amp;F196</f>
         <v>43738KG</v>
@@ -14410,7 +14597,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="80"/>
         <v>43738CRA</v>
@@ -14480,7 +14667,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="80"/>
         <v>43738Fomento</v>
@@ -14550,7 +14737,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="80"/>
         <v>43738Debentures</v>
@@ -14620,7 +14807,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="80"/>
         <v>43738NCE</v>
@@ -14690,7 +14877,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="80"/>
         <v>43738PESA</v>
@@ -14760,7 +14947,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="80"/>
         <v>43738Incentivos Fiscais</v>
@@ -14830,7 +15017,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="80"/>
         <v>43738Bond</v>
@@ -14900,7 +15087,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="80"/>
         <v>43738PPE</v>
@@ -14970,7 +15157,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="80"/>
         <v>43738ACC</v>
@@ -15040,7 +15227,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="80"/>
         <v>43738KG</v>
@@ -15110,7 +15297,7 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="80"/>
         <v>43738Derivativo</v>
@@ -15167,7 +15354,8 @@
         <v>5.7957764759556364E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" ref="A209:A220" si="91">C209&amp;F209</f>
         <v>43646KG</v>
@@ -15237,7 +15425,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="91"/>
         <v>43646CRA</v>
@@ -15307,7 +15495,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="91"/>
         <v>43646Fomento</v>
@@ -15377,7 +15565,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="91"/>
         <v>43646Debentures</v>
@@ -15447,7 +15635,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="91"/>
         <v>43646NCE</v>
@@ -15517,7 +15705,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="91"/>
         <v>43646PESA</v>
@@ -15587,7 +15775,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="91"/>
         <v>43646Incentivos Fiscais</v>
@@ -15657,7 +15845,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="91"/>
         <v>43646Bond</v>
@@ -15727,7 +15915,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="91"/>
         <v>43646PPE</v>
@@ -15797,7 +15985,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="91"/>
         <v>43646ACC</v>
@@ -15867,7 +16055,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="91"/>
         <v>43646KG</v>
@@ -15937,7 +16125,7 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="91"/>
         <v>43646Derivativo</v>
@@ -15994,7 +16182,8 @@
         <v>6.4765678482197164E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" ref="A222:A233" si="102">C222&amp;F222</f>
         <v>43555KG</v>
@@ -16064,7 +16253,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="102"/>
         <v>43555CRA</v>
@@ -16134,7 +16323,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="102"/>
         <v>43555Fomento</v>
@@ -16204,7 +16393,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="102"/>
         <v>43555Debentures</v>
@@ -16274,7 +16463,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="102"/>
         <v>43555NCE</v>
@@ -16344,7 +16533,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="102"/>
         <v>43555PESA</v>
@@ -16414,7 +16603,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="102"/>
         <v>43555Incentivos Fiscais</v>
@@ -16484,7 +16673,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="102"/>
         <v>43555Bond</v>
@@ -16554,7 +16743,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="102"/>
         <v>43555PPE</v>
@@ -16624,7 +16813,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="102"/>
         <v>43555ACC</v>
@@ -16694,7 +16883,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="102"/>
         <v>43555KG</v>
@@ -16764,7 +16953,7 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="102"/>
         <v>43555Derivativo</v>
@@ -16821,7 +17010,8 @@
         <v>6.0912983313386154E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" ref="A235:A267" si="112">C235&amp;F235</f>
         <v>43830ACC</v>
@@ -16891,7 +17081,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="112"/>
         <v>43830PPE</v>
@@ -16961,7 +17151,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17031,7 +17221,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17100,7 +17290,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17170,7 +17360,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17240,7 +17430,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="112"/>
         <v>43830NCI</v>
@@ -17309,7 +17499,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="112"/>
         <v>43830Finimp</v>
@@ -17379,7 +17569,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="112"/>
         <v>43830Scott</v>
@@ -17449,7 +17639,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="112"/>
         <v>43830KG</v>
@@ -17518,7 +17708,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="112"/>
         <v>43830Finame</v>
@@ -17588,7 +17778,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="112"/>
         <v>43830FINEP</v>
@@ -17658,7 +17848,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17727,7 +17917,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17797,7 +17987,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17867,7 +18057,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -17937,7 +18127,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -18007,7 +18197,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -18077,7 +18267,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -18147,7 +18337,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="112"/>
         <v>43830Bond</v>
@@ -18217,7 +18407,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="112"/>
         <v>43830Term Loan</v>
@@ -18287,7 +18477,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="112"/>
         <v>43830Term Loan</v>
@@ -18357,7 +18547,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="112"/>
         <v>43830KG</v>
@@ -18427,7 +18617,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="112"/>
         <v>43830KG</v>
@@ -18496,7 +18686,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="112"/>
         <v>43830KG</v>
@@ -18566,7 +18756,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="112"/>
         <v>43830NCE</v>
@@ -18636,7 +18826,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="112"/>
         <v>43830CDC</v>
@@ -18706,7 +18896,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="112"/>
         <v>43830ACC</v>
@@ -18775,7 +18965,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="112"/>
         <v>43830Custeio</v>
@@ -18845,7 +19035,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="112"/>
         <v>43830CRA</v>
@@ -18915,7 +19105,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="112"/>
         <v>43830Scott</v>
@@ -18985,7 +19175,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="112"/>
         <v>43830Confinamento</v>
@@ -19054,7 +19244,7 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="112"/>
         <v>43830Outros</v>
@@ -19124,7 +19314,8 @@
         <v>5.5636076807511071E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" ref="A269:A296" si="122">C269&amp;F269</f>
         <v>43921ACC</v>
@@ -19193,7 +19384,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="122"/>
         <v>43921PPE</v>
@@ -19262,7 +19453,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -19331,7 +19522,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -19400,7 +19591,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -19469,7 +19660,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="122"/>
         <v>43921Finimp</v>
@@ -19538,7 +19729,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="122"/>
         <v>43921Scott</v>
@@ -19607,7 +19798,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="122"/>
         <v>43921Finame</v>
@@ -19676,7 +19867,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="122"/>
         <v>43921FINEP</v>
@@ -19745,7 +19936,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="122"/>
         <v>43921Sec Bond</v>
@@ -19814,7 +20005,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -19883,7 +20074,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -19952,7 +20143,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -20021,7 +20212,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -20090,7 +20281,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -20159,7 +20350,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -20228,7 +20419,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="122"/>
         <v>43921Bond</v>
@@ -20297,7 +20488,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="122"/>
         <v>43921Term Loan</v>
@@ -20366,7 +20557,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="122"/>
         <v>43921Term Loan</v>
@@ -20435,7 +20626,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="122"/>
         <v>43921KG</v>
@@ -20504,7 +20695,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="122"/>
         <v>43921KG</v>
@@ -20573,7 +20764,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="122"/>
         <v>43921NCE</v>
@@ -20642,7 +20833,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="122"/>
         <v>43921CDC</v>
@@ -20711,7 +20902,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="122"/>
         <v>43921Custeio</v>
@@ -20780,7 +20971,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="122"/>
         <v>43921CRA</v>
@@ -20849,7 +21040,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="122"/>
         <v>43921Scott</v>
@@ -20918,7 +21109,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="122"/>
         <v>43921Confinamento</v>
@@ -20987,7 +21178,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="122"/>
         <v>43921Outros</v>
@@ -21056,6 +21247,7 @@
         <v>5.305142449633353E-2</v>
       </c>
     </row>
+    <row r="297" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f>C298&amp;F298</f>
@@ -21206,40 +21398,40 @@
       <c r="U299" s="8"/>
       <c r="V299" s="11"/>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
+    <row r="300" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012Debênture 7</v>
       </c>
-      <c r="B300" t="str">
+      <c r="B300" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="31">
         <v>44012</v>
       </c>
-      <c r="D300" t="s">
-        <v>20</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="D300" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E300" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H300" s="5">
         <v>508373</v>
       </c>
-      <c r="I300" s="4">
+      <c r="I300" s="31">
         <v>45427</v>
       </c>
-      <c r="J300" t="s">
+      <c r="J300" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K300" s="10">
+      <c r="K300" s="32">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="L300" s="7">
@@ -21249,7 +21441,7 @@
         <f t="shared" si="132"/>
         <v>3.8767123287671232</v>
       </c>
-      <c r="N300">
+      <c r="N300" s="30">
         <f t="shared" si="133"/>
         <v>2024</v>
       </c>
@@ -21257,7 +21449,7 @@
         <f t="shared" si="134"/>
         <v>1970815.8767123288</v>
       </c>
-      <c r="P300" s="9">
+      <c r="P300" s="33">
         <f t="shared" si="135"/>
         <v>44736.824000000001</v>
       </c>
@@ -21278,42 +21470,42 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U300" s="8"/>
-      <c r="V300" s="11"/>
-    </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A301" t="str">
+      <c r="V300" s="34"/>
+    </row>
+    <row r="301" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012Debênture 8 - 1</v>
       </c>
-      <c r="B301" t="str">
+      <c r="B301" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="31">
         <v>44012</v>
       </c>
-      <c r="D301" t="s">
-        <v>20</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="D301" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H301" s="5">
         <v>387332</v>
       </c>
-      <c r="I301" s="4">
+      <c r="I301" s="31">
         <v>45790</v>
       </c>
-      <c r="J301" t="s">
+      <c r="J301" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K301" s="10">
+      <c r="K301" s="32">
         <v>1.6</v>
       </c>
       <c r="L301" s="7">
@@ -21324,7 +21516,7 @@
         <f t="shared" si="132"/>
         <v>4.8712328767123285</v>
       </c>
-      <c r="N301">
+      <c r="N301" s="30">
         <f t="shared" si="133"/>
         <v>2025</v>
       </c>
@@ -21332,7 +21524,7 @@
         <f t="shared" si="134"/>
         <v>1886784.3726027396</v>
       </c>
-      <c r="P301" s="9">
+      <c r="P301" s="33">
         <f t="shared" si="135"/>
         <v>13324.220799999999</v>
       </c>
@@ -21353,42 +21545,42 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U301" s="8"/>
-      <c r="V301" s="11"/>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A302" t="str">
+      <c r="V301" s="34"/>
+    </row>
+    <row r="302" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012Debênture 8 - 2</v>
       </c>
-      <c r="B302" t="str">
+      <c r="B302" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="31">
         <v>44012</v>
       </c>
-      <c r="D302" t="s">
-        <v>20</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="D302" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H302" s="5">
         <v>193666</v>
       </c>
-      <c r="I302" s="4">
+      <c r="I302" s="31">
         <v>46155</v>
       </c>
-      <c r="J302" t="s">
+      <c r="J302" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K302" s="10">
+      <c r="K302" s="32">
         <v>1.6</v>
       </c>
       <c r="L302" s="7">
@@ -21399,7 +21591,7 @@
         <f t="shared" si="132"/>
         <v>5.8712328767123285</v>
       </c>
-      <c r="N302">
+      <c r="N302" s="30">
         <f t="shared" si="133"/>
         <v>2026</v>
       </c>
@@ -21407,7 +21599,7 @@
         <f t="shared" si="134"/>
         <v>1137058.1863013699</v>
       </c>
-      <c r="P302" s="9">
+      <c r="P302" s="33">
         <f t="shared" si="135"/>
         <v>6662.1103999999996</v>
       </c>
@@ -21428,42 +21620,42 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U302" s="8"/>
-      <c r="V302" s="11"/>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A303" t="str">
+      <c r="V302" s="34"/>
+    </row>
+    <row r="303" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012Debênture 9</v>
       </c>
-      <c r="B303" t="str">
+      <c r="B303" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="31">
         <v>44012</v>
       </c>
-      <c r="D303" t="s">
-        <v>20</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="D303" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E303" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H303" s="5">
         <v>585613</v>
       </c>
-      <c r="I303" s="4">
+      <c r="I303" s="31">
         <v>45820</v>
       </c>
-      <c r="J303" t="s">
+      <c r="J303" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K303" s="10">
+      <c r="K303" s="32">
         <v>1.6</v>
       </c>
       <c r="L303" s="7">
@@ -21474,7 +21666,7 @@
         <f t="shared" si="132"/>
         <v>4.9534246575342467</v>
       </c>
-      <c r="N303">
+      <c r="N303" s="30">
         <f t="shared" si="133"/>
         <v>2025</v>
       </c>
@@ -21482,7 +21674,7 @@
         <f t="shared" si="134"/>
         <v>2900789.8739726027</v>
       </c>
-      <c r="P303" s="9">
+      <c r="P303" s="33">
         <f t="shared" si="135"/>
         <v>20145.087200000002</v>
       </c>
@@ -21503,45 +21695,45 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U303" s="8"/>
-      <c r="V303" s="11"/>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A304" t="str">
+      <c r="V303" s="34"/>
+    </row>
+    <row r="304" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012CCB</v>
       </c>
-      <c r="B304" t="str">
+      <c r="B304" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="31">
         <v>44012</v>
       </c>
-      <c r="D304" t="s">
-        <v>20</v>
-      </c>
-      <c r="E304" t="s">
+      <c r="D304" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H304" s="5">
         <v>21111</v>
       </c>
-      <c r="I304" s="4">
+      <c r="I304" s="31">
         <v>43983</v>
       </c>
-      <c r="J304" t="s">
+      <c r="J304" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K304" s="10">
+      <c r="K304" s="32">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="L304" s="10">
+      <c r="L304" s="32">
         <f>K304</f>
         <v>8.3500000000000005E-2</v>
       </c>
@@ -21549,7 +21741,7 @@
         <f t="shared" si="132"/>
         <v>-7.9452054794520555E-2</v>
       </c>
-      <c r="N304">
+      <c r="N304" s="30">
         <f t="shared" si="133"/>
         <v>2020</v>
       </c>
@@ -21557,7 +21749,7 @@
         <f t="shared" si="134"/>
         <v>-1677.3123287671235</v>
       </c>
-      <c r="P304" s="9">
+      <c r="P304" s="33">
         <f t="shared" si="135"/>
         <v>1762.7685000000001</v>
       </c>
@@ -21578,45 +21770,45 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U304" s="8"/>
-      <c r="V304" s="11"/>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A305" t="str">
+      <c r="V304" s="34"/>
+    </row>
+    <row r="305" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012CCB</v>
       </c>
-      <c r="B305" t="str">
+      <c r="B305" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="31">
         <v>44012</v>
       </c>
-      <c r="D305" t="s">
-        <v>20</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="D305" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H305" s="5">
         <v>50000</v>
       </c>
-      <c r="I305" s="4">
+      <c r="I305" s="31">
         <v>44348</v>
       </c>
-      <c r="J305" t="s">
+      <c r="J305" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K305" s="10">
+      <c r="K305" s="32">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="L305" s="10">
+      <c r="L305" s="32">
         <f>K305</f>
         <v>8.3500000000000005E-2</v>
       </c>
@@ -21624,7 +21816,7 @@
         <f t="shared" si="132"/>
         <v>0.92054794520547945</v>
       </c>
-      <c r="N305">
+      <c r="N305" s="30">
         <f t="shared" si="133"/>
         <v>2021</v>
       </c>
@@ -21632,7 +21824,7 @@
         <f t="shared" si="134"/>
         <v>46027.397260273974</v>
       </c>
-      <c r="P305" s="9">
+      <c r="P305" s="33">
         <f t="shared" si="135"/>
         <v>4175</v>
       </c>
@@ -21653,45 +21845,45 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U305" s="8"/>
-      <c r="V305" s="11"/>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A306" t="str">
+      <c r="V305" s="34"/>
+    </row>
+    <row r="306" spans="1:22" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="30" t="str">
         <f t="shared" si="140"/>
         <v>44012CCB</v>
       </c>
-      <c r="B306" t="str">
+      <c r="B306" s="30" t="str">
         <f t="shared" si="141"/>
         <v>44012Minerva</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="31">
         <v>44012</v>
       </c>
-      <c r="D306" t="s">
-        <v>20</v>
-      </c>
-      <c r="E306" t="s">
+      <c r="D306" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E306" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H306" s="5">
         <v>303207</v>
       </c>
-      <c r="I306" s="4">
+      <c r="I306" s="31">
         <v>44377</v>
       </c>
-      <c r="J306" t="s">
+      <c r="J306" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K306" s="10">
+      <c r="K306" s="32">
         <v>0.04</v>
       </c>
-      <c r="L306" s="10">
+      <c r="L306" s="32">
         <f>K306</f>
         <v>0.04</v>
       </c>
@@ -21699,7 +21891,7 @@
         <f t="shared" si="132"/>
         <v>1</v>
       </c>
-      <c r="N306">
+      <c r="N306" s="30">
         <f t="shared" si="133"/>
         <v>2021</v>
       </c>
@@ -21707,7 +21899,7 @@
         <f t="shared" si="134"/>
         <v>303207</v>
       </c>
-      <c r="P306" s="9">
+      <c r="P306" s="33">
         <f t="shared" si="135"/>
         <v>12128.28</v>
       </c>
@@ -21728,7 +21920,7 @@
         <v>5.541709722342468E-2</v>
       </c>
       <c r="U306" s="8"/>
-      <c r="V306" s="11"/>
+      <c r="V306" s="34"/>
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
@@ -23491,7 +23683,7 @@
         <v>5.541709722342468E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="140"/>
         <v>44012KG</v>
@@ -23561,7 +23753,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="140"/>
         <v>44012CRA</v>
@@ -23631,7 +23823,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="140"/>
         <v>44012Fomento</v>
@@ -23701,7 +23893,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="140"/>
         <v>44012Debentures</v>
@@ -23771,7 +23963,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="140"/>
         <v>44012NCE</v>
@@ -23841,7 +24033,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="140"/>
         <v>44012Incentivos Fiscais</v>
@@ -23911,7 +24103,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="140"/>
         <v>44012Bond</v>
@@ -23981,7 +24173,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="140"/>
         <v>44012PPE</v>
@@ -24051,7 +24243,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="140"/>
         <v>44012ACC</v>
@@ -24121,7 +24313,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="140"/>
         <v>44012KG</v>
@@ -24191,7 +24383,7 @@
         <v>4.4989589125865419E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" si="140"/>
         <v>44012Derivativo</v>
@@ -26607,7 +26799,7 @@
         <v>5.4462027005982835E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f t="shared" si="146"/>
         <v>44104KG</v>
@@ -26677,7 +26869,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f t="shared" si="146"/>
         <v>44104CRA</v>
@@ -26747,7 +26939,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f t="shared" si="146"/>
         <v>44104Fomento</v>
@@ -26817,7 +27009,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f t="shared" si="146"/>
         <v>44104Debentures</v>
@@ -26887,7 +27079,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f t="shared" si="146"/>
         <v>44104NCE</v>
@@ -26957,7 +27149,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f t="shared" si="146"/>
         <v>44104Incentivos Fiscais</v>
@@ -27027,7 +27219,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f t="shared" si="146"/>
         <v>44104Bond</v>
@@ -27097,7 +27289,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f t="shared" si="146"/>
         <v>44104PPE</v>
@@ -27167,7 +27359,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f t="shared" si="146"/>
         <v>44104ACC</v>
@@ -27237,7 +27429,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f t="shared" si="146"/>
         <v>44104KG</v>
@@ -27307,7 +27499,7 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f t="shared" si="146"/>
         <v>44104Derivativo</v>
@@ -27364,8 +27556,3653 @@
         <v>4.8329818325053384E-2</v>
       </c>
     </row>
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B388" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C388" s="31">
+        <v>44286</v>
+      </c>
+      <c r="D388" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E388" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F388" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G388" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H388" s="35">
+        <v>403319</v>
+      </c>
+      <c r="I388" s="31">
+        <v>44696</v>
+      </c>
+      <c r="J388" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K388" s="32">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L388" s="32"/>
+      <c r="M388" s="36">
+        <f>(I388-C388)/365</f>
+        <v>1.1232876712328768</v>
+      </c>
+      <c r="N388" s="30">
+        <v>2022</v>
+      </c>
+      <c r="O388" s="8">
+        <f>M388*H388</f>
+        <v>453043.26027397264</v>
+      </c>
+      <c r="S388" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C388,$D:$D,D388)/SUMIFS($H:$H,$C:$C,$C388,$D:$D,D388)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T388" s="7">
+        <f>SUMIFS($P:$P,$C:$C,$C388,$D:$D,D388)/SUMIFS($H:$H,$C:$C,$C388,$D:$D,D388)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B389" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C389" s="31">
+        <v>44286</v>
+      </c>
+      <c r="D389" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E389" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F389" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G389" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H389" s="35">
+        <v>533965</v>
+      </c>
+      <c r="I389" s="31">
+        <v>45427</v>
+      </c>
+      <c r="J389" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K389" s="32">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L389" s="32"/>
+      <c r="M389" s="36">
+        <f>(I389-C389)/365</f>
+        <v>3.1260273972602741</v>
+      </c>
+      <c r="N389" s="30">
+        <v>2024</v>
+      </c>
+      <c r="O389" s="8">
+        <f>M389*H389</f>
+        <v>1669189.2191780822</v>
+      </c>
+      <c r="S389" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C389,$D:$D,D389)/SUMIFS($H:$H,$C:$C,$C389,$D:$D,D389)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T389" s="7">
+        <f>SUMIFS($P:$P,$C:$C,$C389,$D:$D,D389)/SUMIFS($H:$H,$C:$C,$C389,$D:$D,D389)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C390" s="31">
+        <v>44286</v>
+      </c>
+      <c r="D390" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E390" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F390" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G390" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H390" s="5">
+        <v>409934</v>
+      </c>
+      <c r="I390" s="31">
+        <v>45790</v>
+      </c>
+      <c r="J390" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K390" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="L390" s="7"/>
+      <c r="M390" s="36">
+        <f>(I390-C390)/365</f>
+        <v>4.1205479452054794</v>
+      </c>
+      <c r="N390" s="30">
+        <v>2025</v>
+      </c>
+      <c r="O390" s="8">
+        <f>M390*H390</f>
+        <v>1689152.701369863</v>
+      </c>
+      <c r="S390" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C390,$D:$D,D390)/SUMIFS($H:$H,$C:$C,$C390,$D:$D,D390)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T390" s="7">
+        <f>SUMIFS($P:$P,$C:$C,$C390,$D:$D,D390)/SUMIFS($H:$H,$C:$C,$C390,$D:$D,D390)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C391" s="31">
+        <v>44286</v>
+      </c>
+      <c r="D391" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E391" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F391" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G391" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H391" s="5">
+        <v>204967</v>
+      </c>
+      <c r="I391" s="31">
+        <v>46155</v>
+      </c>
+      <c r="J391" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K391" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="L391" s="7"/>
+      <c r="M391" s="36">
+        <f t="shared" ref="M391:M394" si="158">(I391-C391)/365</f>
+        <v>5.1205479452054794</v>
+      </c>
+      <c r="N391" s="30">
+        <v>2026</v>
+      </c>
+      <c r="O391" s="8">
+        <f t="shared" ref="O391:O392" si="159">M391*H391</f>
+        <v>1049543.3506849315</v>
+      </c>
+      <c r="S391" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C391,$D:$D,D391)/SUMIFS($H:$H,$C:$C,$C391,$D:$D,D391)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T391" s="7">
+        <f>SUMIFS($P:$P,$C:$C,$C391,$D:$D,D391)/SUMIFS($H:$H,$C:$C,$C391,$D:$D,D391)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C392" s="31">
+        <v>44286</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E392" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F392" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G392" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H392" s="35">
+        <v>598508</v>
+      </c>
+      <c r="I392" s="31">
+        <v>45820</v>
+      </c>
+      <c r="J392" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K392" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="L392" s="7"/>
+      <c r="M392" s="36">
+        <f t="shared" si="158"/>
+        <v>4.2027397260273975</v>
+      </c>
+      <c r="N392" s="30">
+        <v>2025</v>
+      </c>
+      <c r="O392" s="8">
+        <f t="shared" si="159"/>
+        <v>2515373.3479452059</v>
+      </c>
+      <c r="S392" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C392,$D:$D,D392)/SUMIFS($H:$H,$C:$C,$C392,$D:$D,D392)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T392" s="7">
+        <f>SUMIFS($P:$P,$C:$C,$C392,$D:$D,D392)/SUMIFS($H:$H,$C:$C,$C392,$D:$D,D392)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>88</v>
+      </c>
+      <c r="B393" t="s">
+        <v>83</v>
+      </c>
+      <c r="C393" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D393" t="s">
+        <v>20</v>
+      </c>
+      <c r="E393" t="s">
+        <v>28</v>
+      </c>
+      <c r="F393" t="s">
+        <v>29</v>
+      </c>
+      <c r="G393" t="s">
+        <v>23</v>
+      </c>
+      <c r="H393" s="13">
+        <v>73295</v>
+      </c>
+      <c r="I393" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J393" t="s">
+        <v>30</v>
+      </c>
+      <c r="K393" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L393" s="10"/>
+      <c r="M393" s="36">
+        <f t="shared" si="158"/>
+        <v>1.1698630136986301</v>
+      </c>
+      <c r="N393" s="30">
+        <v>2022</v>
+      </c>
+      <c r="S393" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C393,$D:$D,D393)/SUMIFS($H:$H,$C:$C,$C393,$D:$D,D393)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T393" s="14">
+        <f>SUMIFS($P:$P,$C:$C,$C393,$D:$D,D393)/SUMIFS($H:$H,$C:$C,$C393,$D:$D,D393)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>89</v>
+      </c>
+      <c r="B394" t="s">
+        <v>83</v>
+      </c>
+      <c r="C394" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D394" t="s">
+        <v>20</v>
+      </c>
+      <c r="E394" t="s">
+        <v>28</v>
+      </c>
+      <c r="F394" t="s">
+        <v>29</v>
+      </c>
+      <c r="G394" t="s">
+        <v>23</v>
+      </c>
+      <c r="H394" s="13">
+        <v>308115</v>
+      </c>
+      <c r="I394" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J394" t="s">
+        <v>24</v>
+      </c>
+      <c r="K394" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L394" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M394" s="36">
+        <f>(I394-C394)/365</f>
+        <v>1.1698630136986301</v>
+      </c>
+      <c r="N394" s="30">
+        <v>2022</v>
+      </c>
+      <c r="S394" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C394,$D:$D,D394)/SUMIFS($H:$H,$C:$C,$C394,$D:$D,D394)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T394" s="14">
+        <f>SUMIFS($P:$P,$C:$C,$C394,$D:$D,D394)/SUMIFS($H:$H,$C:$C,$C394,$D:$D,D394)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>89</v>
+      </c>
+      <c r="B395" t="s">
+        <v>83</v>
+      </c>
+      <c r="C395" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D395" t="s">
+        <v>20</v>
+      </c>
+      <c r="E395" t="s">
+        <v>31</v>
+      </c>
+      <c r="F395" t="s">
+        <v>31</v>
+      </c>
+      <c r="G395" t="s">
+        <v>23</v>
+      </c>
+      <c r="H395" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I395" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J395" t="s">
+        <v>24</v>
+      </c>
+      <c r="K395" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L395" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M395" s="36">
+        <f>(I395-C395)/365</f>
+        <v>0.16986301369863013</v>
+      </c>
+      <c r="N395" s="30">
+        <v>2021</v>
+      </c>
+      <c r="S395" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C395,$D:$D,D395)/SUMIFS($H:$H,$C:$C,$C395,$D:$D,D395)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T395" s="14">
+        <f>SUMIFS($P:$P,$C:$C,$C395,$D:$D,D395)/SUMIFS($H:$H,$C:$C,$C395,$D:$D,D395)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>90</v>
+      </c>
+      <c r="B396" t="s">
+        <v>83</v>
+      </c>
+      <c r="C396" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D396" t="s">
+        <v>20</v>
+      </c>
+      <c r="E396" t="s">
+        <v>31</v>
+      </c>
+      <c r="F396" t="s">
+        <v>31</v>
+      </c>
+      <c r="G396" t="s">
+        <v>23</v>
+      </c>
+      <c r="H396" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I396" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J396" t="s">
+        <v>24</v>
+      </c>
+      <c r="K396" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L396" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M396" s="29"/>
+      <c r="N396" s="30">
+        <v>2022</v>
+      </c>
+      <c r="S396" s="8">
+        <f>SUMIFS($O:$O,$C:$C,$C396,$D:$D,D396)/SUMIFS($H:$H,$C:$C,$C396,$D:$D,D396)</f>
+        <v>2.9131128865816498</v>
+      </c>
+      <c r="T396" s="14">
+        <f>SUMIFS($P:$P,$C:$C,$C396,$D:$D,D396)/SUMIFS($H:$H,$C:$C,$C396,$D:$D,D396)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>90</v>
+      </c>
+      <c r="B397" t="s">
+        <v>83</v>
+      </c>
+      <c r="C397" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D397" t="s">
+        <v>20</v>
+      </c>
+      <c r="E397" t="s">
+        <v>28</v>
+      </c>
+      <c r="F397" t="s">
+        <v>32</v>
+      </c>
+      <c r="G397" t="s">
+        <v>23</v>
+      </c>
+      <c r="H397" s="5"/>
+      <c r="I397" s="4">
+        <v>44301</v>
+      </c>
+      <c r="J397" t="s">
+        <v>24</v>
+      </c>
+      <c r="K397" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L397" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M397" s="29"/>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>91</v>
+      </c>
+      <c r="B398" t="s">
+        <v>83</v>
+      </c>
+      <c r="C398" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D398" t="s">
+        <v>20</v>
+      </c>
+      <c r="E398" t="s">
+        <v>28</v>
+      </c>
+      <c r="F398" t="s">
+        <v>32</v>
+      </c>
+      <c r="G398" t="s">
+        <v>23</v>
+      </c>
+      <c r="H398" s="5"/>
+      <c r="I398" s="4">
+        <v>44666</v>
+      </c>
+      <c r="J398" t="s">
+        <v>24</v>
+      </c>
+      <c r="K398" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L398" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M398" s="29"/>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>91</v>
+      </c>
+      <c r="B399" t="s">
+        <v>83</v>
+      </c>
+      <c r="C399" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D399" t="s">
+        <v>20</v>
+      </c>
+      <c r="E399" t="s">
+        <v>28</v>
+      </c>
+      <c r="F399" t="s">
+        <v>32</v>
+      </c>
+      <c r="G399" t="s">
+        <v>23</v>
+      </c>
+      <c r="H399" s="35"/>
+      <c r="I399" s="4">
+        <v>45031</v>
+      </c>
+      <c r="J399" t="s">
+        <v>24</v>
+      </c>
+      <c r="K399" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L399" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M399" s="29"/>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>91</v>
+      </c>
+      <c r="B400" t="s">
+        <v>83</v>
+      </c>
+      <c r="C400" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D400" t="s">
+        <v>20</v>
+      </c>
+      <c r="E400" t="s">
+        <v>33</v>
+      </c>
+      <c r="F400" t="s">
+        <v>33</v>
+      </c>
+      <c r="G400" t="s">
+        <v>23</v>
+      </c>
+      <c r="I400" s="4">
+        <v>44166</v>
+      </c>
+      <c r="J400" t="s">
+        <v>30</v>
+      </c>
+      <c r="K400" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L400" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M400" s="29"/>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>92</v>
+      </c>
+      <c r="B401" t="s">
+        <v>83</v>
+      </c>
+      <c r="C401" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D401" t="s">
+        <v>20</v>
+      </c>
+      <c r="E401" t="s">
+        <v>35</v>
+      </c>
+      <c r="F401" t="s">
+        <v>35</v>
+      </c>
+      <c r="G401" t="s">
+        <v>34</v>
+      </c>
+      <c r="I401" s="4">
+        <v>44002</v>
+      </c>
+      <c r="J401" t="s">
+        <v>30</v>
+      </c>
+      <c r="K401" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L401" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M401" s="29"/>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>93</v>
+      </c>
+      <c r="B402" t="s">
+        <v>83</v>
+      </c>
+      <c r="C402" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D402" t="s">
+        <v>20</v>
+      </c>
+      <c r="E402" t="s">
+        <v>35</v>
+      </c>
+      <c r="F402" t="s">
+        <v>35</v>
+      </c>
+      <c r="G402" t="s">
+        <v>34</v>
+      </c>
+      <c r="I402" s="4">
+        <v>46285</v>
+      </c>
+      <c r="J402" t="s">
+        <v>30</v>
+      </c>
+      <c r="K402" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L402" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M402" s="29"/>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>93</v>
+      </c>
+      <c r="B403" t="s">
+        <v>83</v>
+      </c>
+      <c r="C403" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D403" t="s">
+        <v>20</v>
+      </c>
+      <c r="E403" t="s">
+        <v>35</v>
+      </c>
+      <c r="F403" t="s">
+        <v>35</v>
+      </c>
+      <c r="G403" t="s">
+        <v>34</v>
+      </c>
+      <c r="I403" s="4">
+        <v>47016</v>
+      </c>
+      <c r="J403" t="s">
+        <v>30</v>
+      </c>
+      <c r="K403" s="10">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="L403" s="10">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="M403" s="29"/>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>93</v>
+      </c>
+      <c r="B404" t="s">
+        <v>83</v>
+      </c>
+      <c r="C404" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D404" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" t="s">
+        <v>36</v>
+      </c>
+      <c r="F404" t="s">
+        <v>36</v>
+      </c>
+      <c r="G404" t="s">
+        <v>34</v>
+      </c>
+      <c r="I404" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J404" t="s">
+        <v>37</v>
+      </c>
+      <c r="K404" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L404" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M404" s="29"/>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>94</v>
+      </c>
+      <c r="B405" t="s">
+        <v>83</v>
+      </c>
+      <c r="C405" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D405" t="s">
+        <v>20</v>
+      </c>
+      <c r="E405" t="s">
+        <v>36</v>
+      </c>
+      <c r="F405" t="s">
+        <v>36</v>
+      </c>
+      <c r="G405" t="s">
+        <v>34</v>
+      </c>
+      <c r="I405" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J405" t="s">
+        <v>37</v>
+      </c>
+      <c r="K405" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L405" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M405" s="29"/>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>94</v>
+      </c>
+      <c r="B406" t="s">
+        <v>83</v>
+      </c>
+      <c r="C406" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D406" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" t="s">
+        <v>28</v>
+      </c>
+      <c r="F406" t="s">
+        <v>38</v>
+      </c>
+      <c r="G406" t="s">
+        <v>34</v>
+      </c>
+      <c r="I406" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J406" t="s">
+        <v>30</v>
+      </c>
+      <c r="K406" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L406" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M406" s="29"/>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>95</v>
+      </c>
+      <c r="B407" t="s">
+        <v>83</v>
+      </c>
+      <c r="C407" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D407" t="s">
+        <v>20</v>
+      </c>
+      <c r="E407" t="s">
+        <v>28</v>
+      </c>
+      <c r="F407" t="s">
+        <v>39</v>
+      </c>
+      <c r="G407" t="s">
+        <v>34</v>
+      </c>
+      <c r="I407" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J407" t="s">
+        <v>30</v>
+      </c>
+      <c r="K407" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L407" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M407" s="29"/>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>96</v>
+      </c>
+      <c r="B408" t="s">
+        <v>83</v>
+      </c>
+      <c r="C408" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D408" t="s">
+        <v>20</v>
+      </c>
+      <c r="E408" t="s">
+        <v>28</v>
+      </c>
+      <c r="F408" t="s">
+        <v>39</v>
+      </c>
+      <c r="G408" t="s">
+        <v>34</v>
+      </c>
+      <c r="I408" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J408" t="s">
+        <v>30</v>
+      </c>
+      <c r="K408" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L408" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M408" s="29"/>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>96</v>
+      </c>
+      <c r="B409" t="s">
+        <v>83</v>
+      </c>
+      <c r="C409" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D409" t="s">
+        <v>20</v>
+      </c>
+      <c r="E409" t="s">
+        <v>28</v>
+      </c>
+      <c r="F409" t="s">
+        <v>39</v>
+      </c>
+      <c r="G409" t="s">
+        <v>34</v>
+      </c>
+      <c r="I409" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J409" t="s">
+        <v>30</v>
+      </c>
+      <c r="K409" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L409" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M409" s="29"/>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>96</v>
+      </c>
+      <c r="B410" t="s">
+        <v>83</v>
+      </c>
+      <c r="C410" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410" t="s">
+        <v>28</v>
+      </c>
+      <c r="F410" t="s">
+        <v>39</v>
+      </c>
+      <c r="G410" t="s">
+        <v>34</v>
+      </c>
+      <c r="I410" s="4">
+        <v>45078</v>
+      </c>
+      <c r="J410" t="s">
+        <v>30</v>
+      </c>
+      <c r="K410" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L410" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M410" s="29"/>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>96</v>
+      </c>
+      <c r="B411" t="s">
+        <v>83</v>
+      </c>
+      <c r="C411" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D411" t="s">
+        <v>20</v>
+      </c>
+      <c r="E411" t="s">
+        <v>28</v>
+      </c>
+      <c r="F411" t="s">
+        <v>39</v>
+      </c>
+      <c r="G411" t="s">
+        <v>34</v>
+      </c>
+      <c r="I411" s="4">
+        <v>45444</v>
+      </c>
+      <c r="J411" t="s">
+        <v>30</v>
+      </c>
+      <c r="K411" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L411" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M411" s="29"/>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>96</v>
+      </c>
+      <c r="B412" t="s">
+        <v>83</v>
+      </c>
+      <c r="C412" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D412" t="s">
+        <v>20</v>
+      </c>
+      <c r="E412" t="s">
+        <v>28</v>
+      </c>
+      <c r="F412" t="s">
+        <v>39</v>
+      </c>
+      <c r="G412" t="s">
+        <v>34</v>
+      </c>
+      <c r="I412" s="4">
+        <v>45809</v>
+      </c>
+      <c r="J412" t="s">
+        <v>30</v>
+      </c>
+      <c r="K412" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L412" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M412" s="29"/>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>96</v>
+      </c>
+      <c r="B413" t="s">
+        <v>83</v>
+      </c>
+      <c r="C413" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D413" t="s">
+        <v>20</v>
+      </c>
+      <c r="E413" t="s">
+        <v>28</v>
+      </c>
+      <c r="F413" t="s">
+        <v>39</v>
+      </c>
+      <c r="G413" t="s">
+        <v>34</v>
+      </c>
+      <c r="I413" s="4">
+        <v>46174</v>
+      </c>
+      <c r="J413" t="s">
+        <v>30</v>
+      </c>
+      <c r="K413" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L413" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M413" s="29"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>96</v>
+      </c>
+      <c r="B414" t="s">
+        <v>83</v>
+      </c>
+      <c r="C414" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D414" t="s">
+        <v>20</v>
+      </c>
+      <c r="E414" t="s">
+        <v>28</v>
+      </c>
+      <c r="F414" t="s">
+        <v>39</v>
+      </c>
+      <c r="G414" t="s">
+        <v>34</v>
+      </c>
+      <c r="I414" s="4">
+        <v>46539</v>
+      </c>
+      <c r="J414" t="s">
+        <v>30</v>
+      </c>
+      <c r="K414" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L414" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M414" s="29"/>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>96</v>
+      </c>
+      <c r="B415" t="s">
+        <v>83</v>
+      </c>
+      <c r="C415" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D415" t="s">
+        <v>20</v>
+      </c>
+      <c r="E415" t="s">
+        <v>28</v>
+      </c>
+      <c r="F415" t="s">
+        <v>39</v>
+      </c>
+      <c r="G415" t="s">
+        <v>34</v>
+      </c>
+      <c r="I415" s="4">
+        <v>46905</v>
+      </c>
+      <c r="J415" t="s">
+        <v>30</v>
+      </c>
+      <c r="K415" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L415" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M415" s="29"/>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>96</v>
+      </c>
+      <c r="B416" t="s">
+        <v>83</v>
+      </c>
+      <c r="C416" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D416" t="s">
+        <v>20</v>
+      </c>
+      <c r="E416" t="s">
+        <v>28</v>
+      </c>
+      <c r="F416" t="s">
+        <v>39</v>
+      </c>
+      <c r="G416" t="s">
+        <v>34</v>
+      </c>
+      <c r="I416" s="4">
+        <v>47270</v>
+      </c>
+      <c r="J416" t="s">
+        <v>30</v>
+      </c>
+      <c r="K416" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L416" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M416" s="29"/>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>96</v>
+      </c>
+      <c r="B417" t="s">
+        <v>83</v>
+      </c>
+      <c r="C417" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D417" t="s">
+        <v>20</v>
+      </c>
+      <c r="E417" t="s">
+        <v>28</v>
+      </c>
+      <c r="F417" t="s">
+        <v>28</v>
+      </c>
+      <c r="G417" t="s">
+        <v>34</v>
+      </c>
+      <c r="I417" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J417" t="s">
+        <v>30</v>
+      </c>
+      <c r="K417" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L417" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M417" s="29"/>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>97</v>
+      </c>
+      <c r="B418" t="s">
+        <v>83</v>
+      </c>
+      <c r="C418" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D418" t="s">
+        <v>20</v>
+      </c>
+      <c r="E418" t="s">
+        <v>28</v>
+      </c>
+      <c r="F418" t="s">
+        <v>40</v>
+      </c>
+      <c r="G418" t="s">
+        <v>34</v>
+      </c>
+      <c r="L418" s="7"/>
+      <c r="M418" s="29"/>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>98</v>
+      </c>
+      <c r="B419" t="s">
+        <v>83</v>
+      </c>
+      <c r="C419" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D419" t="s">
+        <v>20</v>
+      </c>
+      <c r="E419" t="s">
+        <v>28</v>
+      </c>
+      <c r="F419" t="s">
+        <v>40</v>
+      </c>
+      <c r="G419" t="s">
+        <v>34</v>
+      </c>
+      <c r="L419" s="7"/>
+      <c r="M419" s="29"/>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>98</v>
+      </c>
+      <c r="B420" t="s">
+        <v>83</v>
+      </c>
+      <c r="C420" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D420" t="s">
+        <v>20</v>
+      </c>
+      <c r="E420" t="s">
+        <v>21</v>
+      </c>
+      <c r="F420" t="s">
+        <v>75</v>
+      </c>
+      <c r="G420" t="s">
+        <v>34</v>
+      </c>
+      <c r="I420" s="4">
+        <v>44106</v>
+      </c>
+      <c r="J420" t="s">
+        <v>24</v>
+      </c>
+      <c r="K420" s="6">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="L420" s="10">
+        <v>2.2682499999999998E-2</v>
+      </c>
+      <c r="M420" s="29"/>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>99</v>
+      </c>
+      <c r="B421" t="s">
+        <v>84</v>
+      </c>
+      <c r="C421" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D421" t="s">
+        <v>20</v>
+      </c>
+      <c r="E421" t="s">
+        <v>21</v>
+      </c>
+      <c r="F421" t="s">
+        <v>76</v>
+      </c>
+      <c r="G421" t="s">
+        <v>23</v>
+      </c>
+      <c r="I421" s="4">
+        <v>44696</v>
+      </c>
+      <c r="J421" t="s">
+        <v>24</v>
+      </c>
+      <c r="K421" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L421" s="10">
+        <v>3.9499999999999993E-2</v>
+      </c>
+      <c r="M421" s="29"/>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>100</v>
+      </c>
+      <c r="B422" t="s">
+        <v>84</v>
+      </c>
+      <c r="C422" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D422" t="s">
+        <v>20</v>
+      </c>
+      <c r="E422" t="s">
+        <v>21</v>
+      </c>
+      <c r="F422" t="s">
+        <v>77</v>
+      </c>
+      <c r="G422" t="s">
+        <v>23</v>
+      </c>
+      <c r="I422" s="4">
+        <v>45427</v>
+      </c>
+      <c r="J422" t="s">
+        <v>27</v>
+      </c>
+      <c r="K422" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L422" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="M422" s="29"/>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>101</v>
+      </c>
+      <c r="B423" t="s">
+        <v>84</v>
+      </c>
+      <c r="C423" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D423" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423" t="s">
+        <v>21</v>
+      </c>
+      <c r="F423" t="s">
+        <v>78</v>
+      </c>
+      <c r="G423" t="s">
+        <v>23</v>
+      </c>
+      <c r="I423" s="4">
+        <v>45790</v>
+      </c>
+      <c r="J423" t="s">
+        <v>79</v>
+      </c>
+      <c r="K423" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="L423" s="7">
+        <v>3.44E-2</v>
+      </c>
+      <c r="M423" s="29"/>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>102</v>
+      </c>
+      <c r="B424" t="s">
+        <v>84</v>
+      </c>
+      <c r="C424" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D424" t="s">
+        <v>20</v>
+      </c>
+      <c r="E424" t="s">
+        <v>21</v>
+      </c>
+      <c r="F424" t="s">
+        <v>80</v>
+      </c>
+      <c r="G424" t="s">
+        <v>23</v>
+      </c>
+      <c r="I424" s="4">
+        <v>46155</v>
+      </c>
+      <c r="J424" t="s">
+        <v>79</v>
+      </c>
+      <c r="K424" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="L424" s="7">
+        <v>3.44E-2</v>
+      </c>
+      <c r="M424" s="29"/>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>103</v>
+      </c>
+      <c r="B425" t="s">
+        <v>84</v>
+      </c>
+      <c r="C425" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D425" t="s">
+        <v>20</v>
+      </c>
+      <c r="E425" t="s">
+        <v>21</v>
+      </c>
+      <c r="F425" t="s">
+        <v>81</v>
+      </c>
+      <c r="G425" t="s">
+        <v>23</v>
+      </c>
+      <c r="I425" s="4">
+        <v>45820</v>
+      </c>
+      <c r="J425" t="s">
+        <v>79</v>
+      </c>
+      <c r="K425" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="L425" s="7">
+        <v>3.44E-2</v>
+      </c>
+      <c r="M425" s="29"/>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>104</v>
+      </c>
+      <c r="B426" t="s">
+        <v>84</v>
+      </c>
+      <c r="C426" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D426" t="s">
+        <v>20</v>
+      </c>
+      <c r="E426" t="s">
+        <v>28</v>
+      </c>
+      <c r="F426" t="s">
+        <v>29</v>
+      </c>
+      <c r="G426" t="s">
+        <v>23</v>
+      </c>
+      <c r="I426" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J426" t="s">
+        <v>30</v>
+      </c>
+      <c r="K426" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L426" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M426" s="29"/>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>105</v>
+      </c>
+      <c r="B427" t="s">
+        <v>84</v>
+      </c>
+      <c r="C427" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D427" t="s">
+        <v>20</v>
+      </c>
+      <c r="E427" t="s">
+        <v>28</v>
+      </c>
+      <c r="F427" t="s">
+        <v>29</v>
+      </c>
+      <c r="G427" t="s">
+        <v>23</v>
+      </c>
+      <c r="I427" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J427" t="s">
+        <v>30</v>
+      </c>
+      <c r="K427" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L427" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M427" s="29"/>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>105</v>
+      </c>
+      <c r="B428" t="s">
+        <v>84</v>
+      </c>
+      <c r="C428" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D428" t="s">
+        <v>20</v>
+      </c>
+      <c r="E428" t="s">
+        <v>28</v>
+      </c>
+      <c r="F428" t="s">
+        <v>29</v>
+      </c>
+      <c r="G428" t="s">
+        <v>23</v>
+      </c>
+      <c r="I428" s="4">
+        <v>44377</v>
+      </c>
+      <c r="J428" t="s">
+        <v>24</v>
+      </c>
+      <c r="K428" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L428" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="M428" s="29"/>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>105</v>
+      </c>
+      <c r="B429" t="s">
+        <v>84</v>
+      </c>
+      <c r="C429" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D429" t="s">
+        <v>20</v>
+      </c>
+      <c r="E429" t="s">
+        <v>31</v>
+      </c>
+      <c r="F429" t="s">
+        <v>31</v>
+      </c>
+      <c r="G429" t="s">
+        <v>23</v>
+      </c>
+      <c r="I429" s="4">
+        <v>44377</v>
+      </c>
+      <c r="J429" t="s">
+        <v>24</v>
+      </c>
+      <c r="K429" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L429" s="7">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="M429" s="29"/>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>106</v>
+      </c>
+      <c r="B430" t="s">
+        <v>84</v>
+      </c>
+      <c r="C430" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D430" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" t="s">
+        <v>31</v>
+      </c>
+      <c r="F430" t="s">
+        <v>31</v>
+      </c>
+      <c r="G430" t="s">
+        <v>23</v>
+      </c>
+      <c r="I430" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J430" t="s">
+        <v>24</v>
+      </c>
+      <c r="K430" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L430" s="7">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="M430" s="29"/>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>106</v>
+      </c>
+      <c r="B431" t="s">
+        <v>84</v>
+      </c>
+      <c r="C431" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D431" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431" t="s">
+        <v>28</v>
+      </c>
+      <c r="F431" t="s">
+        <v>32</v>
+      </c>
+      <c r="G431" t="s">
+        <v>23</v>
+      </c>
+      <c r="I431" s="4">
+        <v>44301</v>
+      </c>
+      <c r="J431" t="s">
+        <v>24</v>
+      </c>
+      <c r="K431" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L431" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M431" s="29"/>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>107</v>
+      </c>
+      <c r="B432" t="s">
+        <v>84</v>
+      </c>
+      <c r="C432" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D432" t="s">
+        <v>20</v>
+      </c>
+      <c r="E432" t="s">
+        <v>28</v>
+      </c>
+      <c r="F432" t="s">
+        <v>32</v>
+      </c>
+      <c r="G432" t="s">
+        <v>23</v>
+      </c>
+      <c r="I432" s="4">
+        <v>44666</v>
+      </c>
+      <c r="J432" t="s">
+        <v>24</v>
+      </c>
+      <c r="K432" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L432" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M432" s="29"/>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>107</v>
+      </c>
+      <c r="B433" t="s">
+        <v>84</v>
+      </c>
+      <c r="C433" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D433" t="s">
+        <v>20</v>
+      </c>
+      <c r="E433" t="s">
+        <v>28</v>
+      </c>
+      <c r="F433" t="s">
+        <v>32</v>
+      </c>
+      <c r="G433" t="s">
+        <v>23</v>
+      </c>
+      <c r="I433" s="4">
+        <v>45031</v>
+      </c>
+      <c r="J433" t="s">
+        <v>24</v>
+      </c>
+      <c r="K433" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L433" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M433" s="29"/>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>107</v>
+      </c>
+      <c r="B434" t="s">
+        <v>84</v>
+      </c>
+      <c r="C434" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D434" t="s">
+        <v>20</v>
+      </c>
+      <c r="E434" t="s">
+        <v>33</v>
+      </c>
+      <c r="F434" t="s">
+        <v>33</v>
+      </c>
+      <c r="G434" t="s">
+        <v>23</v>
+      </c>
+      <c r="I434" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J434" t="s">
+        <v>30</v>
+      </c>
+      <c r="K434" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L434" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M434" s="29"/>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>108</v>
+      </c>
+      <c r="B435" t="s">
+        <v>84</v>
+      </c>
+      <c r="C435" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D435" t="s">
+        <v>20</v>
+      </c>
+      <c r="E435" t="s">
+        <v>35</v>
+      </c>
+      <c r="F435" t="s">
+        <v>35</v>
+      </c>
+      <c r="G435" t="s">
+        <v>34</v>
+      </c>
+      <c r="I435" s="4">
+        <v>44002</v>
+      </c>
+      <c r="J435" t="s">
+        <v>30</v>
+      </c>
+      <c r="K435" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L435" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M435" s="29"/>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>109</v>
+      </c>
+      <c r="B436" t="s">
+        <v>84</v>
+      </c>
+      <c r="C436" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D436" t="s">
+        <v>20</v>
+      </c>
+      <c r="E436" t="s">
+        <v>35</v>
+      </c>
+      <c r="F436" t="s">
+        <v>35</v>
+      </c>
+      <c r="G436" t="s">
+        <v>34</v>
+      </c>
+      <c r="I436" s="4">
+        <v>46285</v>
+      </c>
+      <c r="J436" t="s">
+        <v>30</v>
+      </c>
+      <c r="K436" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L436" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M436" s="29"/>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>109</v>
+      </c>
+      <c r="B437" t="s">
+        <v>84</v>
+      </c>
+      <c r="C437" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D437" t="s">
+        <v>20</v>
+      </c>
+      <c r="E437" t="s">
+        <v>35</v>
+      </c>
+      <c r="F437" t="s">
+        <v>35</v>
+      </c>
+      <c r="G437" t="s">
+        <v>34</v>
+      </c>
+      <c r="I437" s="4">
+        <v>47016</v>
+      </c>
+      <c r="J437" t="s">
+        <v>30</v>
+      </c>
+      <c r="K437" s="10">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="L437" s="10">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="M437" s="29"/>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>109</v>
+      </c>
+      <c r="B438" t="s">
+        <v>84</v>
+      </c>
+      <c r="C438" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D438" t="s">
+        <v>20</v>
+      </c>
+      <c r="E438" t="s">
+        <v>36</v>
+      </c>
+      <c r="F438" t="s">
+        <v>36</v>
+      </c>
+      <c r="G438" t="s">
+        <v>34</v>
+      </c>
+      <c r="I438" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J438" t="s">
+        <v>37</v>
+      </c>
+      <c r="K438" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L438" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M438" s="29"/>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>110</v>
+      </c>
+      <c r="B439" t="s">
+        <v>84</v>
+      </c>
+      <c r="C439" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D439" t="s">
+        <v>20</v>
+      </c>
+      <c r="E439" t="s">
+        <v>36</v>
+      </c>
+      <c r="F439" t="s">
+        <v>36</v>
+      </c>
+      <c r="G439" t="s">
+        <v>34</v>
+      </c>
+      <c r="I439" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J439" t="s">
+        <v>37</v>
+      </c>
+      <c r="K439" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L439" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M439" s="29"/>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>110</v>
+      </c>
+      <c r="B440" t="s">
+        <v>84</v>
+      </c>
+      <c r="C440" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D440" t="s">
+        <v>20</v>
+      </c>
+      <c r="E440" t="s">
+        <v>36</v>
+      </c>
+      <c r="F440" t="s">
+        <v>36</v>
+      </c>
+      <c r="G440" t="s">
+        <v>34</v>
+      </c>
+      <c r="I440" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J440" t="s">
+        <v>37</v>
+      </c>
+      <c r="K440" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L440" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M440" s="29"/>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>110</v>
+      </c>
+      <c r="B441" t="s">
+        <v>84</v>
+      </c>
+      <c r="C441" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D441" t="s">
+        <v>20</v>
+      </c>
+      <c r="E441" t="s">
+        <v>28</v>
+      </c>
+      <c r="F441" t="s">
+        <v>39</v>
+      </c>
+      <c r="G441" t="s">
+        <v>34</v>
+      </c>
+      <c r="I441" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J441" t="s">
+        <v>30</v>
+      </c>
+      <c r="K441" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L441" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M441" s="29"/>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>111</v>
+      </c>
+      <c r="B442" t="s">
+        <v>84</v>
+      </c>
+      <c r="C442" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D442" t="s">
+        <v>20</v>
+      </c>
+      <c r="E442" t="s">
+        <v>28</v>
+      </c>
+      <c r="F442" t="s">
+        <v>28</v>
+      </c>
+      <c r="G442" t="s">
+        <v>34</v>
+      </c>
+      <c r="I442" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J442" t="s">
+        <v>30</v>
+      </c>
+      <c r="K442" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L442" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M442" s="29"/>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>112</v>
+      </c>
+      <c r="B443" t="s">
+        <v>84</v>
+      </c>
+      <c r="C443" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D443" t="s">
+        <v>20</v>
+      </c>
+      <c r="E443" t="s">
+        <v>28</v>
+      </c>
+      <c r="F443" t="s">
+        <v>40</v>
+      </c>
+      <c r="G443" t="s">
+        <v>34</v>
+      </c>
+      <c r="I443" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J443" t="s">
+        <v>30</v>
+      </c>
+      <c r="K443" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L443" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M443" s="29"/>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>113</v>
+      </c>
+      <c r="B444" t="s">
+        <v>84</v>
+      </c>
+      <c r="C444" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D444" t="s">
+        <v>20</v>
+      </c>
+      <c r="E444" t="s">
+        <v>28</v>
+      </c>
+      <c r="F444" t="s">
+        <v>40</v>
+      </c>
+      <c r="G444" t="s">
+        <v>34</v>
+      </c>
+      <c r="I444" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J444" t="s">
+        <v>30</v>
+      </c>
+      <c r="K444" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L444" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M444" s="29"/>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>113</v>
+      </c>
+      <c r="B445" t="s">
+        <v>84</v>
+      </c>
+      <c r="C445" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D445" t="s">
+        <v>20</v>
+      </c>
+      <c r="E445" t="s">
+        <v>28</v>
+      </c>
+      <c r="F445" t="s">
+        <v>40</v>
+      </c>
+      <c r="G445" t="s">
+        <v>34</v>
+      </c>
+      <c r="I445" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J445" t="s">
+        <v>30</v>
+      </c>
+      <c r="K445" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L445" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M445" s="29"/>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>113</v>
+      </c>
+      <c r="B446" t="s">
+        <v>84</v>
+      </c>
+      <c r="C446" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D446" t="s">
+        <v>20</v>
+      </c>
+      <c r="E446" t="s">
+        <v>28</v>
+      </c>
+      <c r="F446" t="s">
+        <v>40</v>
+      </c>
+      <c r="G446" t="s">
+        <v>34</v>
+      </c>
+      <c r="I446" s="4">
+        <v>45078</v>
+      </c>
+      <c r="J446" t="s">
+        <v>30</v>
+      </c>
+      <c r="K446" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L446" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M446" s="29"/>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>113</v>
+      </c>
+      <c r="B447" t="s">
+        <v>84</v>
+      </c>
+      <c r="C447" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D447" t="s">
+        <v>20</v>
+      </c>
+      <c r="E447" t="s">
+        <v>28</v>
+      </c>
+      <c r="F447" t="s">
+        <v>40</v>
+      </c>
+      <c r="G447" t="s">
+        <v>34</v>
+      </c>
+      <c r="I447" s="4">
+        <v>45444</v>
+      </c>
+      <c r="J447" t="s">
+        <v>30</v>
+      </c>
+      <c r="K447" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L447" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M447" s="29"/>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>113</v>
+      </c>
+      <c r="B448" t="s">
+        <v>84</v>
+      </c>
+      <c r="C448" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D448" t="s">
+        <v>20</v>
+      </c>
+      <c r="E448" t="s">
+        <v>28</v>
+      </c>
+      <c r="F448" t="s">
+        <v>40</v>
+      </c>
+      <c r="G448" t="s">
+        <v>34</v>
+      </c>
+      <c r="I448" s="4">
+        <v>45809</v>
+      </c>
+      <c r="J448" t="s">
+        <v>30</v>
+      </c>
+      <c r="K448" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L448" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M448" s="29"/>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>113</v>
+      </c>
+      <c r="B449" t="s">
+        <v>84</v>
+      </c>
+      <c r="C449" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D449" t="s">
+        <v>20</v>
+      </c>
+      <c r="E449" t="s">
+        <v>28</v>
+      </c>
+      <c r="F449" t="s">
+        <v>40</v>
+      </c>
+      <c r="G449" t="s">
+        <v>34</v>
+      </c>
+      <c r="I449" s="4">
+        <v>46174</v>
+      </c>
+      <c r="J449" t="s">
+        <v>30</v>
+      </c>
+      <c r="K449" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L449" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M449" s="29"/>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>113</v>
+      </c>
+      <c r="B450" t="s">
+        <v>84</v>
+      </c>
+      <c r="C450" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D450" t="s">
+        <v>20</v>
+      </c>
+      <c r="E450" t="s">
+        <v>28</v>
+      </c>
+      <c r="F450" t="s">
+        <v>40</v>
+      </c>
+      <c r="G450" t="s">
+        <v>34</v>
+      </c>
+      <c r="I450" s="4">
+        <v>46539</v>
+      </c>
+      <c r="J450" t="s">
+        <v>30</v>
+      </c>
+      <c r="K450" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L450" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M450" s="29"/>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>113</v>
+      </c>
+      <c r="B451" t="s">
+        <v>84</v>
+      </c>
+      <c r="C451" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D451" t="s">
+        <v>20</v>
+      </c>
+      <c r="E451" t="s">
+        <v>28</v>
+      </c>
+      <c r="F451" t="s">
+        <v>40</v>
+      </c>
+      <c r="G451" t="s">
+        <v>34</v>
+      </c>
+      <c r="I451" s="4">
+        <v>46905</v>
+      </c>
+      <c r="J451" t="s">
+        <v>30</v>
+      </c>
+      <c r="K451" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L451" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M451" s="29"/>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>113</v>
+      </c>
+      <c r="B452" t="s">
+        <v>84</v>
+      </c>
+      <c r="C452" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D452" t="s">
+        <v>20</v>
+      </c>
+      <c r="E452" t="s">
+        <v>28</v>
+      </c>
+      <c r="F452" t="s">
+        <v>40</v>
+      </c>
+      <c r="G452" t="s">
+        <v>34</v>
+      </c>
+      <c r="I452" s="4">
+        <v>47270</v>
+      </c>
+      <c r="J452" t="s">
+        <v>30</v>
+      </c>
+      <c r="K452" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L452" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M452" s="29"/>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>113</v>
+      </c>
+      <c r="B453" t="s">
+        <v>84</v>
+      </c>
+      <c r="C453" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D453" t="s">
+        <v>20</v>
+      </c>
+      <c r="E453" t="s">
+        <v>21</v>
+      </c>
+      <c r="F453" t="s">
+        <v>75</v>
+      </c>
+      <c r="G453" t="s">
+        <v>34</v>
+      </c>
+      <c r="I453" s="4">
+        <v>44106</v>
+      </c>
+      <c r="J453" t="s">
+        <v>24</v>
+      </c>
+      <c r="K453" s="6">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="L453" s="7">
+        <v>2.0055369799031997E-2</v>
+      </c>
+      <c r="M453" s="29"/>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>114</v>
+      </c>
+      <c r="B454" t="s">
+        <v>85</v>
+      </c>
+      <c r="C454" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D454" t="s">
+        <v>20</v>
+      </c>
+      <c r="E454" t="s">
+        <v>21</v>
+      </c>
+      <c r="F454" t="s">
+        <v>76</v>
+      </c>
+      <c r="G454" t="s">
+        <v>23</v>
+      </c>
+      <c r="I454" s="4">
+        <v>44696</v>
+      </c>
+      <c r="J454" t="s">
+        <v>24</v>
+      </c>
+      <c r="K454" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L454" s="10">
+        <v>3.7341999999999986E-2</v>
+      </c>
+      <c r="M454" s="29"/>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>115</v>
+      </c>
+      <c r="B455" t="s">
+        <v>85</v>
+      </c>
+      <c r="C455" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D455" t="s">
+        <v>20</v>
+      </c>
+      <c r="E455" t="s">
+        <v>21</v>
+      </c>
+      <c r="F455" t="s">
+        <v>77</v>
+      </c>
+      <c r="G455" t="s">
+        <v>23</v>
+      </c>
+      <c r="I455" s="4">
+        <v>45427</v>
+      </c>
+      <c r="J455" t="s">
+        <v>27</v>
+      </c>
+      <c r="K455" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L455" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="M455" s="29"/>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>116</v>
+      </c>
+      <c r="B456" t="s">
+        <v>85</v>
+      </c>
+      <c r="C456" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D456" t="s">
+        <v>20</v>
+      </c>
+      <c r="E456" t="s">
+        <v>21</v>
+      </c>
+      <c r="F456" t="s">
+        <v>78</v>
+      </c>
+      <c r="G456" t="s">
+        <v>23</v>
+      </c>
+      <c r="I456" s="4">
+        <v>45790</v>
+      </c>
+      <c r="J456" t="s">
+        <v>79</v>
+      </c>
+      <c r="K456" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="L456" s="7">
+        <v>3.0572148547360678E-2</v>
+      </c>
+      <c r="M456" s="29"/>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>117</v>
+      </c>
+      <c r="B457" t="s">
+        <v>85</v>
+      </c>
+      <c r="C457" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D457" t="s">
+        <v>20</v>
+      </c>
+      <c r="E457" t="s">
+        <v>21</v>
+      </c>
+      <c r="F457" t="s">
+        <v>80</v>
+      </c>
+      <c r="G457" t="s">
+        <v>23</v>
+      </c>
+      <c r="I457" s="4">
+        <v>46155</v>
+      </c>
+      <c r="J457" t="s">
+        <v>79</v>
+      </c>
+      <c r="K457" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="L457" s="7">
+        <v>3.0572148547360678E-2</v>
+      </c>
+      <c r="M457" s="29"/>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>118</v>
+      </c>
+      <c r="B458" t="s">
+        <v>85</v>
+      </c>
+      <c r="C458" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D458" t="s">
+        <v>20</v>
+      </c>
+      <c r="E458" t="s">
+        <v>21</v>
+      </c>
+      <c r="F458" t="s">
+        <v>81</v>
+      </c>
+      <c r="G458" t="s">
+        <v>23</v>
+      </c>
+      <c r="I458" s="4">
+        <v>45820</v>
+      </c>
+      <c r="J458" t="s">
+        <v>79</v>
+      </c>
+      <c r="K458" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="L458" s="7">
+        <v>3.0572148547360678E-2</v>
+      </c>
+      <c r="M458" s="29"/>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>119</v>
+      </c>
+      <c r="B459" t="s">
+        <v>85</v>
+      </c>
+      <c r="C459" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D459" t="s">
+        <v>20</v>
+      </c>
+      <c r="E459" t="s">
+        <v>28</v>
+      </c>
+      <c r="F459" t="s">
+        <v>29</v>
+      </c>
+      <c r="G459" t="s">
+        <v>23</v>
+      </c>
+      <c r="I459" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J459" t="s">
+        <v>30</v>
+      </c>
+      <c r="K459" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L459" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M459" s="29"/>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>120</v>
+      </c>
+      <c r="B460" t="s">
+        <v>85</v>
+      </c>
+      <c r="C460" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D460" t="s">
+        <v>20</v>
+      </c>
+      <c r="E460" t="s">
+        <v>28</v>
+      </c>
+      <c r="F460" t="s">
+        <v>29</v>
+      </c>
+      <c r="G460" t="s">
+        <v>23</v>
+      </c>
+      <c r="I460" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J460" t="s">
+        <v>30</v>
+      </c>
+      <c r="K460" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="L460" s="10">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M460" s="29"/>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>120</v>
+      </c>
+      <c r="B461" t="s">
+        <v>85</v>
+      </c>
+      <c r="C461" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D461" t="s">
+        <v>20</v>
+      </c>
+      <c r="E461" t="s">
+        <v>28</v>
+      </c>
+      <c r="F461" t="s">
+        <v>29</v>
+      </c>
+      <c r="G461" t="s">
+        <v>23</v>
+      </c>
+      <c r="I461" s="4">
+        <v>44377</v>
+      </c>
+      <c r="J461" t="s">
+        <v>24</v>
+      </c>
+      <c r="K461" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L461" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="M461" s="29"/>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>120</v>
+      </c>
+      <c r="B462" t="s">
+        <v>85</v>
+      </c>
+      <c r="C462" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D462" t="s">
+        <v>20</v>
+      </c>
+      <c r="E462" t="s">
+        <v>31</v>
+      </c>
+      <c r="F462" t="s">
+        <v>31</v>
+      </c>
+      <c r="G462" t="s">
+        <v>23</v>
+      </c>
+      <c r="I462" s="4">
+        <v>44377</v>
+      </c>
+      <c r="J462" t="s">
+        <v>24</v>
+      </c>
+      <c r="K462" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L462" s="7">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="M462" s="29"/>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>121</v>
+      </c>
+      <c r="B463" t="s">
+        <v>85</v>
+      </c>
+      <c r="C463" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D463" t="s">
+        <v>20</v>
+      </c>
+      <c r="E463" t="s">
+        <v>28</v>
+      </c>
+      <c r="F463" t="s">
+        <v>32</v>
+      </c>
+      <c r="G463" t="s">
+        <v>23</v>
+      </c>
+      <c r="I463" s="4">
+        <v>44301</v>
+      </c>
+      <c r="J463" t="s">
+        <v>24</v>
+      </c>
+      <c r="K463" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L463" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M463" s="29"/>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>122</v>
+      </c>
+      <c r="B464" t="s">
+        <v>85</v>
+      </c>
+      <c r="C464" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D464" t="s">
+        <v>20</v>
+      </c>
+      <c r="E464" t="s">
+        <v>28</v>
+      </c>
+      <c r="F464" t="s">
+        <v>32</v>
+      </c>
+      <c r="G464" t="s">
+        <v>23</v>
+      </c>
+      <c r="I464" s="4">
+        <v>44666</v>
+      </c>
+      <c r="J464" t="s">
+        <v>24</v>
+      </c>
+      <c r="K464" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L464" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M464" s="29"/>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>122</v>
+      </c>
+      <c r="B465" t="s">
+        <v>85</v>
+      </c>
+      <c r="C465" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D465" t="s">
+        <v>20</v>
+      </c>
+      <c r="E465" t="s">
+        <v>28</v>
+      </c>
+      <c r="F465" t="s">
+        <v>32</v>
+      </c>
+      <c r="G465" t="s">
+        <v>23</v>
+      </c>
+      <c r="I465" s="4">
+        <v>45031</v>
+      </c>
+      <c r="J465" t="s">
+        <v>24</v>
+      </c>
+      <c r="K465" s="10">
+        <v>2.35E-2</v>
+      </c>
+      <c r="L465" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M465" s="29"/>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>122</v>
+      </c>
+      <c r="B466" t="s">
+        <v>85</v>
+      </c>
+      <c r="C466" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D466" t="s">
+        <v>20</v>
+      </c>
+      <c r="E466" t="s">
+        <v>33</v>
+      </c>
+      <c r="F466" t="s">
+        <v>33</v>
+      </c>
+      <c r="G466" t="s">
+        <v>23</v>
+      </c>
+      <c r="I466" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J466" t="s">
+        <v>30</v>
+      </c>
+      <c r="K466" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L466" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M466" s="29"/>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>123</v>
+      </c>
+      <c r="B467" t="s">
+        <v>85</v>
+      </c>
+      <c r="C467" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D467" t="s">
+        <v>20</v>
+      </c>
+      <c r="E467" t="s">
+        <v>35</v>
+      </c>
+      <c r="F467" t="s">
+        <v>35</v>
+      </c>
+      <c r="G467" t="s">
+        <v>34</v>
+      </c>
+      <c r="I467" s="4">
+        <v>44002</v>
+      </c>
+      <c r="J467" t="s">
+        <v>30</v>
+      </c>
+      <c r="K467" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L467" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M467" s="29"/>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>124</v>
+      </c>
+      <c r="B468" t="s">
+        <v>85</v>
+      </c>
+      <c r="C468" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D468" t="s">
+        <v>20</v>
+      </c>
+      <c r="E468" t="s">
+        <v>35</v>
+      </c>
+      <c r="F468" t="s">
+        <v>35</v>
+      </c>
+      <c r="G468" t="s">
+        <v>34</v>
+      </c>
+      <c r="I468" s="4">
+        <v>46285</v>
+      </c>
+      <c r="J468" t="s">
+        <v>30</v>
+      </c>
+      <c r="K468" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L468" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M468" s="29"/>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>124</v>
+      </c>
+      <c r="B469" t="s">
+        <v>85</v>
+      </c>
+      <c r="C469" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D469" t="s">
+        <v>20</v>
+      </c>
+      <c r="E469" t="s">
+        <v>35</v>
+      </c>
+      <c r="F469" t="s">
+        <v>35</v>
+      </c>
+      <c r="G469" t="s">
+        <v>34</v>
+      </c>
+      <c r="I469" s="4">
+        <v>47016</v>
+      </c>
+      <c r="J469" t="s">
+        <v>30</v>
+      </c>
+      <c r="K469" s="10">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="L469" s="10">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="M469" s="29"/>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>124</v>
+      </c>
+      <c r="B470" t="s">
+        <v>85</v>
+      </c>
+      <c r="C470" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D470" t="s">
+        <v>20</v>
+      </c>
+      <c r="E470" t="s">
+        <v>36</v>
+      </c>
+      <c r="F470" t="s">
+        <v>36</v>
+      </c>
+      <c r="G470" t="s">
+        <v>34</v>
+      </c>
+      <c r="I470" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J470" t="s">
+        <v>37</v>
+      </c>
+      <c r="K470" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L470" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M470" s="29"/>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>125</v>
+      </c>
+      <c r="B471" t="s">
+        <v>85</v>
+      </c>
+      <c r="C471" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D471" t="s">
+        <v>20</v>
+      </c>
+      <c r="E471" t="s">
+        <v>36</v>
+      </c>
+      <c r="F471" t="s">
+        <v>36</v>
+      </c>
+      <c r="G471" t="s">
+        <v>34</v>
+      </c>
+      <c r="I471" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J471" t="s">
+        <v>37</v>
+      </c>
+      <c r="K471" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L471" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M471" s="29"/>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>125</v>
+      </c>
+      <c r="B472" t="s">
+        <v>85</v>
+      </c>
+      <c r="C472" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D472" t="s">
+        <v>20</v>
+      </c>
+      <c r="E472" t="s">
+        <v>36</v>
+      </c>
+      <c r="F472" t="s">
+        <v>36</v>
+      </c>
+      <c r="G472" t="s">
+        <v>34</v>
+      </c>
+      <c r="I472" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J472" t="s">
+        <v>37</v>
+      </c>
+      <c r="K472" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="L472" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M472" s="29"/>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>125</v>
+      </c>
+      <c r="B473" t="s">
+        <v>85</v>
+      </c>
+      <c r="C473" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D473" t="s">
+        <v>20</v>
+      </c>
+      <c r="E473" t="s">
+        <v>28</v>
+      </c>
+      <c r="F473" t="s">
+        <v>39</v>
+      </c>
+      <c r="G473" t="s">
+        <v>34</v>
+      </c>
+      <c r="I473" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J473" t="s">
+        <v>30</v>
+      </c>
+      <c r="K473" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L473" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M473" s="29"/>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>126</v>
+      </c>
+      <c r="B474" t="s">
+        <v>85</v>
+      </c>
+      <c r="C474" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D474" t="s">
+        <v>20</v>
+      </c>
+      <c r="E474" t="s">
+        <v>28</v>
+      </c>
+      <c r="F474" t="s">
+        <v>28</v>
+      </c>
+      <c r="G474" t="s">
+        <v>34</v>
+      </c>
+      <c r="I474" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J474" t="s">
+        <v>30</v>
+      </c>
+      <c r="K474" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L474" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M474" s="29"/>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>127</v>
+      </c>
+      <c r="B475" t="s">
+        <v>85</v>
+      </c>
+      <c r="C475" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D475" t="s">
+        <v>20</v>
+      </c>
+      <c r="E475" t="s">
+        <v>28</v>
+      </c>
+      <c r="F475" t="s">
+        <v>40</v>
+      </c>
+      <c r="G475" t="s">
+        <v>34</v>
+      </c>
+      <c r="I475" s="4">
+        <v>43983</v>
+      </c>
+      <c r="J475" t="s">
+        <v>30</v>
+      </c>
+      <c r="K475" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L475" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M475" s="29"/>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>128</v>
+      </c>
+      <c r="B476" t="s">
+        <v>85</v>
+      </c>
+      <c r="C476" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D476" t="s">
+        <v>20</v>
+      </c>
+      <c r="E476" t="s">
+        <v>28</v>
+      </c>
+      <c r="F476" t="s">
+        <v>40</v>
+      </c>
+      <c r="G476" t="s">
+        <v>34</v>
+      </c>
+      <c r="I476" s="4">
+        <v>44348</v>
+      </c>
+      <c r="J476" t="s">
+        <v>30</v>
+      </c>
+      <c r="K476" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L476" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M476" s="29"/>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>128</v>
+      </c>
+      <c r="B477" t="s">
+        <v>85</v>
+      </c>
+      <c r="C477" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D477" t="s">
+        <v>20</v>
+      </c>
+      <c r="E477" t="s">
+        <v>28</v>
+      </c>
+      <c r="F477" t="s">
+        <v>40</v>
+      </c>
+      <c r="G477" t="s">
+        <v>34</v>
+      </c>
+      <c r="I477" s="4">
+        <v>44713</v>
+      </c>
+      <c r="J477" t="s">
+        <v>30</v>
+      </c>
+      <c r="K477" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L477" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M477" s="29"/>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>128</v>
+      </c>
+      <c r="B478" t="s">
+        <v>85</v>
+      </c>
+      <c r="C478" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D478" t="s">
+        <v>20</v>
+      </c>
+      <c r="E478" t="s">
+        <v>28</v>
+      </c>
+      <c r="F478" t="s">
+        <v>40</v>
+      </c>
+      <c r="G478" t="s">
+        <v>34</v>
+      </c>
+      <c r="I478" s="4">
+        <v>45078</v>
+      </c>
+      <c r="J478" t="s">
+        <v>30</v>
+      </c>
+      <c r="K478" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L478" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M478" s="29"/>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>128</v>
+      </c>
+      <c r="B479" t="s">
+        <v>85</v>
+      </c>
+      <c r="C479" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D479" t="s">
+        <v>20</v>
+      </c>
+      <c r="E479" t="s">
+        <v>28</v>
+      </c>
+      <c r="F479" t="s">
+        <v>40</v>
+      </c>
+      <c r="G479" t="s">
+        <v>34</v>
+      </c>
+      <c r="I479" s="4">
+        <v>45444</v>
+      </c>
+      <c r="J479" t="s">
+        <v>30</v>
+      </c>
+      <c r="K479" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L479" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M479" s="29"/>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>128</v>
+      </c>
+      <c r="B480" t="s">
+        <v>85</v>
+      </c>
+      <c r="C480" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D480" t="s">
+        <v>20</v>
+      </c>
+      <c r="E480" t="s">
+        <v>28</v>
+      </c>
+      <c r="F480" t="s">
+        <v>40</v>
+      </c>
+      <c r="G480" t="s">
+        <v>34</v>
+      </c>
+      <c r="I480" s="4">
+        <v>45809</v>
+      </c>
+      <c r="J480" t="s">
+        <v>30</v>
+      </c>
+      <c r="K480" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L480" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M480" s="29"/>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>128</v>
+      </c>
+      <c r="B481" t="s">
+        <v>85</v>
+      </c>
+      <c r="C481" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D481" t="s">
+        <v>20</v>
+      </c>
+      <c r="E481" t="s">
+        <v>28</v>
+      </c>
+      <c r="F481" t="s">
+        <v>40</v>
+      </c>
+      <c r="G481" t="s">
+        <v>34</v>
+      </c>
+      <c r="I481" s="4">
+        <v>46174</v>
+      </c>
+      <c r="J481" t="s">
+        <v>30</v>
+      </c>
+      <c r="K481" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L481" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M481" s="29"/>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>128</v>
+      </c>
+      <c r="B482" t="s">
+        <v>85</v>
+      </c>
+      <c r="C482" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D482" t="s">
+        <v>20</v>
+      </c>
+      <c r="E482" t="s">
+        <v>28</v>
+      </c>
+      <c r="F482" t="s">
+        <v>40</v>
+      </c>
+      <c r="G482" t="s">
+        <v>34</v>
+      </c>
+      <c r="I482" s="4">
+        <v>46539</v>
+      </c>
+      <c r="J482" t="s">
+        <v>30</v>
+      </c>
+      <c r="K482" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L482" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M482" s="29"/>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>128</v>
+      </c>
+      <c r="B483" t="s">
+        <v>85</v>
+      </c>
+      <c r="C483" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D483" t="s">
+        <v>20</v>
+      </c>
+      <c r="E483" t="s">
+        <v>28</v>
+      </c>
+      <c r="F483" t="s">
+        <v>40</v>
+      </c>
+      <c r="G483" t="s">
+        <v>34</v>
+      </c>
+      <c r="I483" s="4">
+        <v>46905</v>
+      </c>
+      <c r="J483" t="s">
+        <v>30</v>
+      </c>
+      <c r="K483" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L483" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M483" s="29"/>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>128</v>
+      </c>
+      <c r="B484" t="s">
+        <v>85</v>
+      </c>
+      <c r="C484" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D484" t="s">
+        <v>20</v>
+      </c>
+      <c r="E484" t="s">
+        <v>28</v>
+      </c>
+      <c r="F484" t="s">
+        <v>40</v>
+      </c>
+      <c r="G484" t="s">
+        <v>34</v>
+      </c>
+      <c r="I484" s="4">
+        <v>47270</v>
+      </c>
+      <c r="J484" t="s">
+        <v>30</v>
+      </c>
+      <c r="K484" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L484" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M484" s="29"/>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>128</v>
+      </c>
+      <c r="B485" t="s">
+        <v>85</v>
+      </c>
+      <c r="C485" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D485" t="s">
+        <v>20</v>
+      </c>
+      <c r="G485" t="s">
+        <v>34</v>
+      </c>
+      <c r="M485" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T384" xr:uid="{120C850A-8DD6-4E43-AB67-A1F1E4494240}"/>
+  <autoFilter ref="A1:T484" xr:uid="{120C850A-8DD6-4E43-AB67-A1F1E4494240}">
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2021" dateTimeGrouping="year"/>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Minerva"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
